--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_19_14.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_19_14.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>104458.4812267242</v>
+        <v>104458.4812267241</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>21920712.8804781</v>
+        <v>21920712.88047809</v>
       </c>
     </row>
     <row r="9">
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>38.51145034103843</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1415,7 +1415,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>49.9168363381979</v>
       </c>
       <c r="S11" t="n">
         <v>52.85678959655596</v>
@@ -1424,13 +1424,13 @@
         <v>52.85678959655596</v>
       </c>
       <c r="U11" t="n">
-        <v>52.85678959655596</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>35.57149708268047</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1470,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>41.94508221245999</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>4.611178064186485</v>
       </c>
       <c r="R12" t="n">
-        <v>46.55626027664648</v>
+        <v>52.85678959655596</v>
       </c>
       <c r="S12" t="n">
         <v>52.85678959655596</v>
@@ -1503,7 +1503,7 @@
         <v>52.85678959655596</v>
       </c>
       <c r="U12" t="n">
-        <v>52.85678959655596</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -1631,7 +1631,7 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>6.4676524662963</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -1649,25 +1649,25 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>35.57149708268048</v>
+        <v>40.95259142598482</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>52.85678959655596</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>52.85678959655596</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>41.00804278695518</v>
       </c>
       <c r="U14" t="n">
-        <v>52.85678959655596</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>52.85678959655596</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>52.85678959655596</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1686,13 +1686,13 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>4.611178064186485</v>
       </c>
       <c r="D15" t="n">
-        <v>52.85678959655596</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>52.85678959655596</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>52.85678959655596</v>
@@ -1707,7 +1707,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>41.94508221245999</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1737,16 +1737,16 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>46.55626027664648</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>52.85678959655596</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>52.85678959655596</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1844,73 +1844,73 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>52.85678959655596</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
         <v>52.85678959655596</v>
       </c>
-      <c r="F17" t="n">
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>35.57149708268037</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0</v>
+      </c>
+      <c r="X17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y17" t="n">
         <v>52.85678959655596</v>
-      </c>
-      <c r="G17" t="n">
-        <v>52.85678959655596</v>
-      </c>
-      <c r="H17" t="n">
-        <v>35.57149708268047</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0</v>
-      </c>
-      <c r="V17" t="n">
-        <v>0</v>
-      </c>
-      <c r="W17" t="n">
-        <v>0</v>
-      </c>
-      <c r="X17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1938,13 +1938,13 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>4.611178064186485</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>52.85678959655596</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>41.94508221245999</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1965,7 +1965,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>25.28363501191949</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>52.85678959655596</v>
@@ -1974,10 +1974,10 @@
         <v>52.85678959655596</v>
       </c>
       <c r="T18" t="n">
-        <v>52.85678959655596</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>21.27262526472699</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -2078,19 +2078,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>23.42693911448706</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>64.53649527860384</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>64.53649527860384</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>64.53649527860384</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2123,13 +2123,13 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>40.95259142598482</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>47.01084296710592</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>64.53649527860378</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2138,7 +2138,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>64.53649527860378</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2157,7 +2157,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>56.84374504139418</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -2169,16 +2169,16 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>64.53649527860384</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>64.53649527860384</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>64.53649527860384</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>56.84374504139423</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2220,13 +2220,13 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>64.53649527860378</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>64.53649527860378</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>64.53649527860378</v>
       </c>
     </row>
     <row r="22">
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>64.53649527860384</v>
+        <v>64.53649527860378</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2330,7 +2330,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>64.53649527860378</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2339,7 +2339,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>23.42693911448698</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -2372,7 +2372,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>64.53649527860384</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2381,10 +2381,10 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>23.42693911448706</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>64.53649527860384</v>
+        <v>64.53649527860378</v>
       </c>
     </row>
     <row r="24">
@@ -2397,10 +2397,10 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>64.53649527860384</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>64.53649527860384</v>
+        <v>64.53649527860378</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -2409,16 +2409,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>31.56011002947466</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>14.89866282893423</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.94508221245999</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2439,19 +2439,19 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>25.2836350119195</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>64.53649527860384</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>64.53649527860378</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>64.53649527860378</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -2564,16 +2564,16 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>64.53649527860378</v>
       </c>
       <c r="G26" t="n">
-        <v>23.42693911448706</v>
+        <v>64.53649527860378</v>
       </c>
       <c r="H26" t="n">
-        <v>64.53649527860384</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>23.42693911448698</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2615,13 +2615,13 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>64.53649527860384</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>64.53649527860384</v>
+        <v>64.53649527860378</v>
       </c>
     </row>
     <row r="27">
@@ -2640,13 +2640,13 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>64.53649527860378</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>56.84374504139418</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2682,19 +2682,19 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>56.84374504139422</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>64.53649527860384</v>
+        <v>64.53649527860378</v>
       </c>
       <c r="U27" t="n">
-        <v>64.53649527860384</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>64.53649527860384</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>64.53649527860378</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>64.53649527860378</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -2810,10 +2810,10 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>49.45198405205235</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>38.51145034103843</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -2837,10 +2837,10 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>23.42693911448706</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>64.53649527860378</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -2852,13 +2852,13 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>64.53649527860384</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>64.53649527860384</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>64.53649527860384</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2868,7 +2868,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>64.53649527860378</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -2892,7 +2892,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>41.94508221245999</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2913,10 +2913,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>25.2836350119195</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>54.15152309561847</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -2925,16 +2925,16 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>64.53649527860384</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>64.53649527860384</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>64.53649527860384</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>56.84374504139423</v>
+        <v>64.53649527860378</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -3026,13 +3026,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>23.42693911448697</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>64.53649527860378</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>64.53649527860378</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -3074,28 +3074,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>64.53649527860384</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>64.53649527860384</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>64.53649527860384</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>23.42693911448707</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>64.53649527860378</v>
       </c>
     </row>
     <row r="33">
@@ -3120,7 +3120,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>56.84374504139423</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3153,22 +3153,22 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>64.53649527860384</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>64.53649527860378</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>64.53649527860378</v>
       </c>
       <c r="V33" t="n">
-        <v>64.53649527860384</v>
+        <v>64.53649527860378</v>
       </c>
       <c r="W33" t="n">
-        <v>64.53649527860384</v>
+        <v>56.84374504139418</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -3263,76 +3263,76 @@
         </is>
       </c>
       <c r="B35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>35.57149708268037</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="n">
         <v>52.85678959655596</v>
       </c>
-      <c r="C35" t="n">
-        <v>0</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
+      <c r="X35" t="n">
         <v>52.85678959655596</v>
       </c>
-      <c r="G35" t="n">
-        <v>35.57149708268047</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" t="n">
+      <c r="Y35" t="n">
         <v>52.85678959655596</v>
-      </c>
-      <c r="U35" t="n">
-        <v>0</v>
-      </c>
-      <c r="V35" t="n">
-        <v>0</v>
-      </c>
-      <c r="W35" t="n">
-        <v>0</v>
-      </c>
-      <c r="X35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3342,19 +3342,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>52.85678959655596</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>52.85678959655596</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>52.85678959655596</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>52.85678959655596</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>46.55626027664647</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -3399,7 +3399,7 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>46.55626027664648</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -3411,7 +3411,7 @@
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>52.85678959655596</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3503,13 +3503,13 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>35.57149708268037</v>
       </c>
       <c r="D38" t="n">
         <v>52.85678959655596</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>52.85678959655596</v>
       </c>
       <c r="F38" t="n">
         <v>52.85678959655596</v>
@@ -3545,7 +3545,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>35.57149708268048</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -3563,7 +3563,7 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>52.85678959655596</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -3579,76 +3579,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>46.55626027664647</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>0</v>
+      </c>
+      <c r="R39" t="n">
+        <v>0</v>
+      </c>
+      <c r="S39" t="n">
+        <v>0</v>
+      </c>
+      <c r="T39" t="n">
+        <v>0</v>
+      </c>
+      <c r="U39" t="n">
         <v>52.85678959655596</v>
       </c>
-      <c r="E39" t="n">
+      <c r="V39" t="n">
         <v>52.85678959655596</v>
       </c>
-      <c r="F39" t="n">
-        <v>0</v>
-      </c>
-      <c r="G39" t="n">
-        <v>0</v>
-      </c>
-      <c r="H39" t="n">
-        <v>46.55626027664647</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0</v>
-      </c>
-      <c r="L39" t="n">
-        <v>0</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="n">
-        <v>0</v>
-      </c>
-      <c r="O39" t="n">
-        <v>0</v>
-      </c>
-      <c r="P39" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>0</v>
-      </c>
-      <c r="R39" t="n">
-        <v>0</v>
-      </c>
-      <c r="S39" t="n">
-        <v>0</v>
-      </c>
-      <c r="T39" t="n">
+      <c r="W39" t="n">
+        <v>0</v>
+      </c>
+      <c r="X39" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y39" t="n">
         <v>52.85678959655596</v>
-      </c>
-      <c r="U39" t="n">
-        <v>0</v>
-      </c>
-      <c r="V39" t="n">
-        <v>0</v>
-      </c>
-      <c r="W39" t="n">
-        <v>0</v>
-      </c>
-      <c r="X39" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y39" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3746,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>52.85678959655596</v>
       </c>
       <c r="F41" t="n">
         <v>52.85678959655596</v>
@@ -3782,10 +3782,10 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>35.57149708268048</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>52.85678959655596</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>35.57149708268037</v>
       </c>
     </row>
     <row r="42">
@@ -3822,13 +3822,13 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>52.85678959655596</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>46.55626027664647</v>
       </c>
       <c r="F42" t="n">
-        <v>46.55626027664647</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -3873,7 +3873,7 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>52.85678959655596</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>52.85678959655596</v>
@@ -3974,16 +3974,16 @@
         </is>
       </c>
       <c r="B44" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
         <v>41.17708391450813</v>
-      </c>
-      <c r="C44" t="n">
-        <v>0</v>
-      </c>
-      <c r="D44" t="n">
-        <v>0</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>41.17708391450813</v>
@@ -3998,7 +3998,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>38.51145034103843</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -4019,10 +4019,10 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>36.26877551189874</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>41.17708391450813</v>
+        <v>38.93440908536846</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4059,7 +4059,7 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>41.17708391450813</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -4098,7 +4098,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>25.28363501191949</v>
+        <v>25.2836350119195</v>
       </c>
       <c r="R45" t="n">
         <v>41.17708391450813</v>
@@ -4110,13 +4110,13 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>10.98514049997926</v>
+        <v>41.17708391450813</v>
       </c>
       <c r="V45" t="n">
-        <v>41.17708391450813</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>41.17708391450813</v>
+        <v>10.98514049997924</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -5015,28 +5015,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4.228543167724476</v>
+        <v>43.12899805766228</v>
       </c>
       <c r="C11" t="n">
-        <v>4.228543167724476</v>
+        <v>43.12899805766228</v>
       </c>
       <c r="D11" t="n">
-        <v>4.228543167724476</v>
+        <v>43.12899805766228</v>
       </c>
       <c r="E11" t="n">
-        <v>4.228543167724476</v>
+        <v>43.12899805766228</v>
       </c>
       <c r="F11" t="n">
-        <v>4.228543167724476</v>
+        <v>43.12899805766228</v>
       </c>
       <c r="G11" t="n">
-        <v>4.228543167724476</v>
+        <v>43.12899805766228</v>
       </c>
       <c r="H11" t="n">
-        <v>4.228543167724476</v>
+        <v>43.12899805766228</v>
       </c>
       <c r="I11" t="n">
-        <v>4.228543167724476</v>
+        <v>43.12899805766228</v>
       </c>
       <c r="J11" t="n">
         <v>4.228543167724476</v>
@@ -5045,10 +5045,10 @@
         <v>4.228543167724476</v>
       </c>
       <c r="L11" t="n">
-        <v>33.18684718020474</v>
+        <v>33.18684718020468</v>
       </c>
       <c r="M11" t="n">
-        <v>85.51506888079513</v>
+        <v>85.51506888079507</v>
       </c>
       <c r="N11" t="n">
         <v>137.8432905813855</v>
@@ -5057,34 +5057,34 @@
         <v>190.1715122819759</v>
       </c>
       <c r="P11" t="n">
-        <v>200.3314379882784</v>
+        <v>200.3314379882783</v>
       </c>
       <c r="Q11" t="n">
-        <v>200.3314379882784</v>
+        <v>200.3314379882783</v>
       </c>
       <c r="R11" t="n">
-        <v>200.3314379882784</v>
+        <v>149.9103911820177</v>
       </c>
       <c r="S11" t="n">
-        <v>146.9407414261006</v>
+        <v>96.51969461984001</v>
       </c>
       <c r="T11" t="n">
-        <v>93.55004486392289</v>
+        <v>43.12899805766228</v>
       </c>
       <c r="U11" t="n">
-        <v>40.15934830174515</v>
+        <v>43.12899805766228</v>
       </c>
       <c r="V11" t="n">
-        <v>40.15934830174515</v>
+        <v>43.12899805766228</v>
       </c>
       <c r="W11" t="n">
-        <v>4.228543167724476</v>
+        <v>43.12899805766228</v>
       </c>
       <c r="X11" t="n">
-        <v>4.228543167724476</v>
+        <v>43.12899805766228</v>
       </c>
       <c r="Y11" t="n">
-        <v>4.228543167724476</v>
+        <v>43.12899805766228</v>
       </c>
     </row>
     <row r="12">
@@ -5094,43 +5094,43 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4.228543167724476</v>
+        <v>46.59731307930023</v>
       </c>
       <c r="C12" t="n">
-        <v>4.228543167724476</v>
+        <v>46.59731307930023</v>
       </c>
       <c r="D12" t="n">
-        <v>4.228543167724476</v>
+        <v>46.59731307930023</v>
       </c>
       <c r="E12" t="n">
-        <v>4.228543167724476</v>
+        <v>46.59731307930023</v>
       </c>
       <c r="F12" t="n">
-        <v>4.228543167724476</v>
+        <v>46.59731307930023</v>
       </c>
       <c r="G12" t="n">
-        <v>4.228543167724476</v>
+        <v>46.59731307930023</v>
       </c>
       <c r="H12" t="n">
-        <v>4.228543167724476</v>
+        <v>46.59731307930023</v>
       </c>
       <c r="I12" t="n">
-        <v>4.228543167724476</v>
+        <v>46.59731307930023</v>
       </c>
       <c r="J12" t="n">
         <v>4.228543167724476</v>
       </c>
       <c r="K12" t="n">
-        <v>11.40944974131076</v>
+        <v>4.228543167724476</v>
       </c>
       <c r="L12" t="n">
-        <v>63.73767144190116</v>
+        <v>56.55676486831487</v>
       </c>
       <c r="M12" t="n">
-        <v>116.0658931424915</v>
+        <v>108.8849865689053</v>
       </c>
       <c r="N12" t="n">
-        <v>121.8672482110124</v>
+        <v>161.2132082694957</v>
       </c>
       <c r="O12" t="n">
         <v>174.1954699116028</v>
@@ -5139,31 +5139,31 @@
         <v>211.4271583862238</v>
       </c>
       <c r="Q12" t="n">
-        <v>211.4271583862238</v>
+        <v>206.7694027658334</v>
       </c>
       <c r="R12" t="n">
-        <v>164.4006328542577</v>
+        <v>153.3787062036557</v>
       </c>
       <c r="S12" t="n">
-        <v>111.0099362920799</v>
+        <v>99.98800964147796</v>
       </c>
       <c r="T12" t="n">
-        <v>57.61923972990221</v>
+        <v>46.59731307930023</v>
       </c>
       <c r="U12" t="n">
-        <v>4.228543167724476</v>
+        <v>46.59731307930023</v>
       </c>
       <c r="V12" t="n">
-        <v>4.228543167724476</v>
+        <v>46.59731307930023</v>
       </c>
       <c r="W12" t="n">
-        <v>4.228543167724476</v>
+        <v>46.59731307930023</v>
       </c>
       <c r="X12" t="n">
-        <v>4.228543167724476</v>
+        <v>46.59731307930023</v>
       </c>
       <c r="Y12" t="n">
-        <v>4.228543167724476</v>
+        <v>46.59731307930023</v>
       </c>
     </row>
     <row r="13">
@@ -5252,40 +5252,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>4.228543167724476</v>
+        <v>10.76152545691266</v>
       </c>
       <c r="C14" t="n">
-        <v>4.228543167724476</v>
+        <v>10.76152545691266</v>
       </c>
       <c r="D14" t="n">
-        <v>4.228543167724476</v>
+        <v>10.76152545691266</v>
       </c>
       <c r="E14" t="n">
-        <v>4.228543167724476</v>
+        <v>10.76152545691266</v>
       </c>
       <c r="F14" t="n">
-        <v>4.228543167724476</v>
+        <v>10.76152545691266</v>
       </c>
       <c r="G14" t="n">
-        <v>4.228543167724476</v>
+        <v>10.76152545691266</v>
       </c>
       <c r="H14" t="n">
-        <v>4.228543167724476</v>
+        <v>10.76152545691266</v>
       </c>
       <c r="I14" t="n">
-        <v>4.228543167724476</v>
+        <v>10.76152545691266</v>
       </c>
       <c r="J14" t="n">
-        <v>4.228543167724476</v>
+        <v>10.76152545691266</v>
       </c>
       <c r="K14" t="n">
         <v>4.228543167724476</v>
       </c>
       <c r="L14" t="n">
-        <v>33.18684718020474</v>
+        <v>33.18684718020468</v>
       </c>
       <c r="M14" t="n">
-        <v>85.51506888079513</v>
+        <v>85.51506888079507</v>
       </c>
       <c r="N14" t="n">
         <v>137.8432905813855</v>
@@ -5294,34 +5294,34 @@
         <v>190.1715122819759</v>
       </c>
       <c r="P14" t="n">
-        <v>200.3314379882784</v>
+        <v>200.3314379882783</v>
       </c>
       <c r="Q14" t="n">
-        <v>164.4006328542577</v>
+        <v>158.965184022637</v>
       </c>
       <c r="R14" t="n">
-        <v>164.4006328542577</v>
+        <v>105.5744874604593</v>
       </c>
       <c r="S14" t="n">
-        <v>164.4006328542577</v>
+        <v>52.18379089828153</v>
       </c>
       <c r="T14" t="n">
-        <v>164.4006328542577</v>
+        <v>10.76152545691266</v>
       </c>
       <c r="U14" t="n">
-        <v>111.0099362920799</v>
+        <v>10.76152545691266</v>
       </c>
       <c r="V14" t="n">
-        <v>57.61923972990221</v>
+        <v>10.76152545691266</v>
       </c>
       <c r="W14" t="n">
-        <v>4.228543167724476</v>
+        <v>10.76152545691266</v>
       </c>
       <c r="X14" t="n">
-        <v>4.228543167724476</v>
+        <v>10.76152545691266</v>
       </c>
       <c r="Y14" t="n">
-        <v>4.228543167724476</v>
+        <v>10.76152545691266</v>
       </c>
     </row>
     <row r="15">
@@ -5331,43 +5331,43 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>164.4006328542577</v>
+        <v>104.6457652618683</v>
       </c>
       <c r="C15" t="n">
-        <v>164.4006328542577</v>
+        <v>99.98800964147796</v>
       </c>
       <c r="D15" t="n">
-        <v>111.0099362920799</v>
+        <v>99.98800964147796</v>
       </c>
       <c r="E15" t="n">
-        <v>57.61923972990221</v>
+        <v>99.98800964147796</v>
       </c>
       <c r="F15" t="n">
-        <v>4.228543167724476</v>
+        <v>46.59731307930023</v>
       </c>
       <c r="G15" t="n">
-        <v>4.228543167724476</v>
+        <v>46.59731307930023</v>
       </c>
       <c r="H15" t="n">
-        <v>4.228543167724476</v>
+        <v>46.59731307930023</v>
       </c>
       <c r="I15" t="n">
-        <v>4.228543167724476</v>
+        <v>46.59731307930023</v>
       </c>
       <c r="J15" t="n">
         <v>4.228543167724476</v>
       </c>
       <c r="K15" t="n">
-        <v>4.228543167724476</v>
+        <v>11.40944974131076</v>
       </c>
       <c r="L15" t="n">
-        <v>56.55676486831487</v>
+        <v>63.73767144190116</v>
       </c>
       <c r="M15" t="n">
-        <v>69.53902651042196</v>
+        <v>116.0658931424915</v>
       </c>
       <c r="N15" t="n">
-        <v>121.8672482110124</v>
+        <v>168.394114843082</v>
       </c>
       <c r="O15" t="n">
         <v>174.1954699116028</v>
@@ -5385,22 +5385,22 @@
         <v>211.4271583862238</v>
       </c>
       <c r="T15" t="n">
-        <v>164.4006328542577</v>
+        <v>211.4271583862238</v>
       </c>
       <c r="U15" t="n">
-        <v>164.4006328542577</v>
+        <v>158.0364618240461</v>
       </c>
       <c r="V15" t="n">
-        <v>164.4006328542577</v>
+        <v>158.0364618240461</v>
       </c>
       <c r="W15" t="n">
-        <v>164.4006328542577</v>
+        <v>104.6457652618683</v>
       </c>
       <c r="X15" t="n">
-        <v>164.4006328542577</v>
+        <v>104.6457652618683</v>
       </c>
       <c r="Y15" t="n">
-        <v>164.4006328542577</v>
+        <v>104.6457652618683</v>
       </c>
     </row>
     <row r="16">
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>200.3314379882784</v>
+        <v>111.0099362920799</v>
       </c>
       <c r="C17" t="n">
-        <v>200.3314379882784</v>
+        <v>57.61923972990221</v>
       </c>
       <c r="D17" t="n">
-        <v>200.3314379882784</v>
+        <v>57.61923972990221</v>
       </c>
       <c r="E17" t="n">
-        <v>146.9407414261006</v>
+        <v>57.61923972990221</v>
       </c>
       <c r="F17" t="n">
-        <v>93.55004486392289</v>
+        <v>57.61923972990221</v>
       </c>
       <c r="G17" t="n">
-        <v>40.15934830174515</v>
+        <v>57.61923972990221</v>
       </c>
       <c r="H17" t="n">
         <v>4.228543167724476</v>
@@ -5519,10 +5519,10 @@
         <v>4.228543167724476</v>
       </c>
       <c r="L17" t="n">
-        <v>33.18684718020474</v>
+        <v>33.18684718020468</v>
       </c>
       <c r="M17" t="n">
-        <v>85.51506888079513</v>
+        <v>85.51506888079507</v>
       </c>
       <c r="N17" t="n">
         <v>137.8432905813855</v>
@@ -5531,34 +5531,34 @@
         <v>190.1715122819759</v>
       </c>
       <c r="P17" t="n">
-        <v>200.3314379882784</v>
+        <v>200.3314379882783</v>
       </c>
       <c r="Q17" t="n">
-        <v>200.3314379882784</v>
+        <v>200.3314379882783</v>
       </c>
       <c r="R17" t="n">
-        <v>200.3314379882784</v>
+        <v>200.3314379882783</v>
       </c>
       <c r="S17" t="n">
-        <v>200.3314379882784</v>
+        <v>164.4006328542577</v>
       </c>
       <c r="T17" t="n">
-        <v>200.3314379882784</v>
+        <v>164.4006328542577</v>
       </c>
       <c r="U17" t="n">
-        <v>200.3314379882784</v>
+        <v>164.4006328542577</v>
       </c>
       <c r="V17" t="n">
-        <v>200.3314379882784</v>
+        <v>164.4006328542577</v>
       </c>
       <c r="W17" t="n">
-        <v>200.3314379882784</v>
+        <v>164.4006328542577</v>
       </c>
       <c r="X17" t="n">
-        <v>200.3314379882784</v>
+        <v>164.4006328542577</v>
       </c>
       <c r="Y17" t="n">
-        <v>200.3314379882784</v>
+        <v>111.0099362920799</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>4.228543167724476</v>
+        <v>104.6457652618683</v>
       </c>
       <c r="C18" t="n">
-        <v>4.228543167724476</v>
+        <v>104.6457652618683</v>
       </c>
       <c r="D18" t="n">
-        <v>4.228543167724476</v>
+        <v>104.6457652618683</v>
       </c>
       <c r="E18" t="n">
-        <v>4.228543167724476</v>
+        <v>104.6457652618683</v>
       </c>
       <c r="F18" t="n">
-        <v>4.228543167724476</v>
+        <v>104.6457652618683</v>
       </c>
       <c r="G18" t="n">
-        <v>4.228543167724476</v>
+        <v>104.6457652618683</v>
       </c>
       <c r="H18" t="n">
-        <v>4.228543167724476</v>
+        <v>99.98800964147796</v>
       </c>
       <c r="I18" t="n">
-        <v>4.228543167724476</v>
+        <v>46.59731307930023</v>
       </c>
       <c r="J18" t="n">
         <v>4.228543167724476</v>
       </c>
       <c r="K18" t="n">
-        <v>4.228543167724476</v>
+        <v>11.40944974131076</v>
       </c>
       <c r="L18" t="n">
-        <v>56.55676486831487</v>
+        <v>63.73767144190116</v>
       </c>
       <c r="M18" t="n">
-        <v>69.53902651042196</v>
+        <v>116.0658931424915</v>
       </c>
       <c r="N18" t="n">
-        <v>121.8672482110124</v>
+        <v>168.394114843082</v>
       </c>
       <c r="O18" t="n">
-        <v>174.1954699116028</v>
+        <v>211.4271583862238</v>
       </c>
       <c r="P18" t="n">
         <v>211.4271583862238</v>
       </c>
       <c r="Q18" t="n">
-        <v>185.8881331216587</v>
+        <v>211.4271583862238</v>
       </c>
       <c r="R18" t="n">
-        <v>132.4974365594809</v>
+        <v>158.0364618240461</v>
       </c>
       <c r="S18" t="n">
-        <v>79.10673999730321</v>
+        <v>104.6457652618683</v>
       </c>
       <c r="T18" t="n">
-        <v>25.71604343512547</v>
+        <v>104.6457652618683</v>
       </c>
       <c r="U18" t="n">
-        <v>4.228543167724476</v>
+        <v>104.6457652618683</v>
       </c>
       <c r="V18" t="n">
-        <v>4.228543167724476</v>
+        <v>104.6457652618683</v>
       </c>
       <c r="W18" t="n">
-        <v>4.228543167724476</v>
+        <v>104.6457652618683</v>
       </c>
       <c r="X18" t="n">
-        <v>4.228543167724476</v>
+        <v>104.6457652618683</v>
       </c>
       <c r="Y18" t="n">
-        <v>4.228543167724476</v>
+        <v>104.6457652618683</v>
       </c>
     </row>
     <row r="19">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>200.7280568301788</v>
+        <v>5.162919622288302</v>
       </c>
       <c r="C20" t="n">
-        <v>135.5396777608819</v>
+        <v>5.162919622288302</v>
       </c>
       <c r="D20" t="n">
-        <v>135.5396777608819</v>
+        <v>5.162919622288302</v>
       </c>
       <c r="E20" t="n">
-        <v>70.35129869158513</v>
+        <v>5.162919622288302</v>
       </c>
       <c r="F20" t="n">
-        <v>5.162919622288307</v>
+        <v>5.162919622288302</v>
       </c>
       <c r="G20" t="n">
-        <v>5.162919622288307</v>
+        <v>5.162919622288302</v>
       </c>
       <c r="H20" t="n">
-        <v>5.162919622288307</v>
+        <v>5.162919622288302</v>
       </c>
       <c r="I20" t="n">
-        <v>5.162919622288307</v>
+        <v>5.162919622288302</v>
       </c>
       <c r="J20" t="n">
-        <v>5.162919622288307</v>
+        <v>5.162919622288302</v>
       </c>
       <c r="K20" t="n">
-        <v>5.162919622288307</v>
+        <v>5.162919622288302</v>
       </c>
       <c r="L20" t="n">
-        <v>34.12122363476857</v>
+        <v>34.1212236347685</v>
       </c>
       <c r="M20" t="n">
-        <v>98.01235396058637</v>
+        <v>98.01235396058624</v>
       </c>
       <c r="N20" t="n">
-        <v>161.9034842864042</v>
+        <v>161.903484286404</v>
       </c>
       <c r="O20" t="n">
-        <v>214.2317059869946</v>
+        <v>214.2317059869944</v>
       </c>
       <c r="P20" t="n">
-        <v>224.391631693297</v>
+        <v>224.3916316932967</v>
       </c>
       <c r="Q20" t="n">
-        <v>224.391631693297</v>
+        <v>183.0253777276555</v>
       </c>
       <c r="R20" t="n">
-        <v>224.391631693297</v>
+        <v>135.5396777608818</v>
       </c>
       <c r="S20" t="n">
-        <v>224.391631693297</v>
+        <v>70.35129869158506</v>
       </c>
       <c r="T20" t="n">
-        <v>224.391631693297</v>
+        <v>70.35129869158506</v>
       </c>
       <c r="U20" t="n">
-        <v>224.391631693297</v>
+        <v>70.35129869158506</v>
       </c>
       <c r="V20" t="n">
-        <v>224.391631693297</v>
+        <v>5.162919622288302</v>
       </c>
       <c r="W20" t="n">
-        <v>224.391631693297</v>
+        <v>5.162919622288302</v>
       </c>
       <c r="X20" t="n">
-        <v>224.391631693297</v>
+        <v>5.162919622288302</v>
       </c>
       <c r="Y20" t="n">
-        <v>224.391631693297</v>
+        <v>5.162919622288302</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>258.1459811144153</v>
+        <v>5.162919622288302</v>
       </c>
       <c r="C21" t="n">
-        <v>258.1459811144153</v>
+        <v>5.162919622288302</v>
       </c>
       <c r="D21" t="n">
-        <v>258.1459811144153</v>
+        <v>5.162919622288302</v>
       </c>
       <c r="E21" t="n">
-        <v>258.1459811144153</v>
+        <v>5.162919622288302</v>
       </c>
       <c r="F21" t="n">
-        <v>192.9576020451185</v>
+        <v>5.162919622288302</v>
       </c>
       <c r="G21" t="n">
-        <v>127.7692229758217</v>
+        <v>5.162919622288302</v>
       </c>
       <c r="H21" t="n">
-        <v>62.5808439065249</v>
+        <v>5.162919622288302</v>
       </c>
       <c r="I21" t="n">
-        <v>5.162919622288307</v>
+        <v>5.162919622288302</v>
       </c>
       <c r="J21" t="n">
-        <v>5.162919622288307</v>
+        <v>5.162919622288302</v>
       </c>
       <c r="K21" t="n">
         <v>12.34382619587459</v>
       </c>
       <c r="L21" t="n">
-        <v>68.32198241812802</v>
+        <v>68.32198241812797</v>
       </c>
       <c r="M21" t="n">
-        <v>132.2131127439458</v>
+        <v>132.2131127439457</v>
       </c>
       <c r="N21" t="n">
-        <v>196.1042430697636</v>
+        <v>157.0231623139763</v>
       </c>
       <c r="O21" t="n">
-        <v>220.9142926397943</v>
+        <v>220.9142926397941</v>
       </c>
       <c r="P21" t="n">
-        <v>258.1459811144153</v>
+        <v>258.1459811144151</v>
       </c>
       <c r="Q21" t="n">
-        <v>258.1459811144153</v>
+        <v>258.1459811144151</v>
       </c>
       <c r="R21" t="n">
-        <v>258.1459811144153</v>
+        <v>258.1459811144151</v>
       </c>
       <c r="S21" t="n">
-        <v>258.1459811144153</v>
+        <v>258.1459811144151</v>
       </c>
       <c r="T21" t="n">
-        <v>258.1459811144153</v>
+        <v>258.1459811144151</v>
       </c>
       <c r="U21" t="n">
-        <v>258.1459811144153</v>
+        <v>258.1459811144151</v>
       </c>
       <c r="V21" t="n">
-        <v>258.1459811144153</v>
+        <v>258.1459811144151</v>
       </c>
       <c r="W21" t="n">
-        <v>258.1459811144153</v>
+        <v>192.9576020451184</v>
       </c>
       <c r="X21" t="n">
-        <v>258.1459811144153</v>
+        <v>127.7692229758216</v>
       </c>
       <c r="Y21" t="n">
-        <v>258.1459811144153</v>
+        <v>62.58084390652485</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>5.162919622288307</v>
+        <v>5.162919622288302</v>
       </c>
       <c r="C22" t="n">
-        <v>5.162919622288307</v>
+        <v>5.162919622288302</v>
       </c>
       <c r="D22" t="n">
-        <v>5.162919622288307</v>
+        <v>5.162919622288302</v>
       </c>
       <c r="E22" t="n">
-        <v>5.162919622288307</v>
+        <v>5.162919622288302</v>
       </c>
       <c r="F22" t="n">
-        <v>5.162919622288307</v>
+        <v>5.162919622288302</v>
       </c>
       <c r="G22" t="n">
-        <v>5.162919622288307</v>
+        <v>5.162919622288302</v>
       </c>
       <c r="H22" t="n">
-        <v>5.162919622288307</v>
+        <v>5.162919622288302</v>
       </c>
       <c r="I22" t="n">
-        <v>5.162919622288307</v>
+        <v>5.162919622288302</v>
       </c>
       <c r="J22" t="n">
-        <v>5.162919622288307</v>
+        <v>5.162919622288302</v>
       </c>
       <c r="K22" t="n">
-        <v>5.162919622288307</v>
+        <v>5.162919622288302</v>
       </c>
       <c r="L22" t="n">
-        <v>5.162919622288307</v>
+        <v>5.162919622288302</v>
       </c>
       <c r="M22" t="n">
-        <v>5.162919622288307</v>
+        <v>5.162919622288302</v>
       </c>
       <c r="N22" t="n">
-        <v>5.162919622288307</v>
+        <v>5.162919622288302</v>
       </c>
       <c r="O22" t="n">
-        <v>5.162919622288307</v>
+        <v>5.162919622288302</v>
       </c>
       <c r="P22" t="n">
-        <v>5.162919622288307</v>
+        <v>5.162919622288302</v>
       </c>
       <c r="Q22" t="n">
-        <v>5.162919622288307</v>
+        <v>5.162919622288302</v>
       </c>
       <c r="R22" t="n">
-        <v>5.162919622288307</v>
+        <v>5.162919622288302</v>
       </c>
       <c r="S22" t="n">
-        <v>5.162919622288307</v>
+        <v>5.162919622288302</v>
       </c>
       <c r="T22" t="n">
-        <v>5.162919622288307</v>
+        <v>5.162919622288302</v>
       </c>
       <c r="U22" t="n">
-        <v>5.162919622288307</v>
+        <v>5.162919622288302</v>
       </c>
       <c r="V22" t="n">
-        <v>5.162919622288307</v>
+        <v>5.162919622288302</v>
       </c>
       <c r="W22" t="n">
-        <v>5.162919622288307</v>
+        <v>5.162919622288302</v>
       </c>
       <c r="X22" t="n">
-        <v>5.162919622288307</v>
+        <v>5.162919622288302</v>
       </c>
       <c r="Y22" t="n">
-        <v>5.162919622288307</v>
+        <v>5.162919622288302</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>5.162919622288307</v>
+        <v>94.01487355470323</v>
       </c>
       <c r="C23" t="n">
-        <v>5.162919622288307</v>
+        <v>94.01487355470323</v>
       </c>
       <c r="D23" t="n">
-        <v>5.162919622288307</v>
+        <v>94.01487355470323</v>
       </c>
       <c r="E23" t="n">
-        <v>5.162919622288307</v>
+        <v>94.01487355470323</v>
       </c>
       <c r="F23" t="n">
-        <v>5.162919622288307</v>
+        <v>94.01487355470323</v>
       </c>
       <c r="G23" t="n">
-        <v>5.162919622288307</v>
+        <v>28.82649448540647</v>
       </c>
       <c r="H23" t="n">
-        <v>5.162919622288307</v>
+        <v>28.82649448540647</v>
       </c>
       <c r="I23" t="n">
-        <v>5.162919622288307</v>
+        <v>28.82649448540647</v>
       </c>
       <c r="J23" t="n">
-        <v>5.162919622288307</v>
+        <v>5.162919622288302</v>
       </c>
       <c r="K23" t="n">
-        <v>5.162919622288307</v>
+        <v>5.162919622288302</v>
       </c>
       <c r="L23" t="n">
-        <v>34.12122363476857</v>
+        <v>34.1212236347685</v>
       </c>
       <c r="M23" t="n">
-        <v>98.01235396058637</v>
+        <v>98.01235396058624</v>
       </c>
       <c r="N23" t="n">
-        <v>161.9034842864042</v>
+        <v>161.903484286404</v>
       </c>
       <c r="O23" t="n">
-        <v>214.2317059869946</v>
+        <v>214.2317059869944</v>
       </c>
       <c r="P23" t="n">
-        <v>224.391631693297</v>
+        <v>224.3916316932967</v>
       </c>
       <c r="Q23" t="n">
-        <v>224.391631693297</v>
+        <v>224.3916316932967</v>
       </c>
       <c r="R23" t="n">
-        <v>224.391631693297</v>
+        <v>224.3916316932967</v>
       </c>
       <c r="S23" t="n">
-        <v>224.391631693297</v>
+        <v>224.3916316932967</v>
       </c>
       <c r="T23" t="n">
-        <v>224.391631693297</v>
+        <v>224.3916316932967</v>
       </c>
       <c r="U23" t="n">
-        <v>159.2032526240002</v>
+        <v>224.3916316932967</v>
       </c>
       <c r="V23" t="n">
-        <v>159.2032526240002</v>
+        <v>224.3916316932967</v>
       </c>
       <c r="W23" t="n">
-        <v>159.2032526240002</v>
+        <v>224.3916316932967</v>
       </c>
       <c r="X23" t="n">
-        <v>135.5396777608819</v>
+        <v>224.3916316932967</v>
       </c>
       <c r="Y23" t="n">
-        <v>70.35129869158513</v>
+        <v>159.203252624</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>192.9576020451185</v>
+        <v>102.2301977112564</v>
       </c>
       <c r="C24" t="n">
-        <v>127.7692229758217</v>
+        <v>102.2301977112564</v>
       </c>
       <c r="D24" t="n">
-        <v>62.5808439065249</v>
+        <v>37.04181864195968</v>
       </c>
       <c r="E24" t="n">
-        <v>62.5808439065249</v>
+        <v>37.04181864195968</v>
       </c>
       <c r="F24" t="n">
-        <v>62.5808439065249</v>
+        <v>37.04181864195968</v>
       </c>
       <c r="G24" t="n">
-        <v>62.5808439065249</v>
+        <v>5.162919622288302</v>
       </c>
       <c r="H24" t="n">
-        <v>62.5808439065249</v>
+        <v>5.162919622288302</v>
       </c>
       <c r="I24" t="n">
-        <v>47.53168953386406</v>
+        <v>5.162919622288302</v>
       </c>
       <c r="J24" t="n">
-        <v>5.162919622288307</v>
+        <v>5.162919622288302</v>
       </c>
       <c r="K24" t="n">
         <v>12.34382619587459</v>
       </c>
       <c r="L24" t="n">
-        <v>68.32198241812802</v>
+        <v>29.24090166234086</v>
       </c>
       <c r="M24" t="n">
-        <v>93.13203198815872</v>
+        <v>93.1320319881586</v>
       </c>
       <c r="N24" t="n">
-        <v>157.0231623139765</v>
+        <v>157.0231623139763</v>
       </c>
       <c r="O24" t="n">
-        <v>220.9142926397943</v>
+        <v>220.9142926397941</v>
       </c>
       <c r="P24" t="n">
-        <v>258.1459811144153</v>
+        <v>258.1459811144151</v>
       </c>
       <c r="Q24" t="n">
-        <v>258.1459811144153</v>
+        <v>232.60695584985</v>
       </c>
       <c r="R24" t="n">
-        <v>258.1459811144153</v>
+        <v>232.60695584985</v>
       </c>
       <c r="S24" t="n">
-        <v>192.9576020451185</v>
+        <v>232.60695584985</v>
       </c>
       <c r="T24" t="n">
-        <v>192.9576020451185</v>
+        <v>167.4185767805532</v>
       </c>
       <c r="U24" t="n">
-        <v>192.9576020451185</v>
+        <v>102.2301977112564</v>
       </c>
       <c r="V24" t="n">
-        <v>192.9576020451185</v>
+        <v>102.2301977112564</v>
       </c>
       <c r="W24" t="n">
-        <v>192.9576020451185</v>
+        <v>102.2301977112564</v>
       </c>
       <c r="X24" t="n">
-        <v>192.9576020451185</v>
+        <v>102.2301977112564</v>
       </c>
       <c r="Y24" t="n">
-        <v>192.9576020451185</v>
+        <v>102.2301977112564</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>5.162919622288307</v>
+        <v>5.162919622288302</v>
       </c>
       <c r="C25" t="n">
-        <v>5.162919622288307</v>
+        <v>5.162919622288302</v>
       </c>
       <c r="D25" t="n">
-        <v>5.162919622288307</v>
+        <v>5.162919622288302</v>
       </c>
       <c r="E25" t="n">
-        <v>5.162919622288307</v>
+        <v>5.162919622288302</v>
       </c>
       <c r="F25" t="n">
-        <v>5.162919622288307</v>
+        <v>5.162919622288302</v>
       </c>
       <c r="G25" t="n">
-        <v>5.162919622288307</v>
+        <v>5.162919622288302</v>
       </c>
       <c r="H25" t="n">
-        <v>5.162919622288307</v>
+        <v>5.162919622288302</v>
       </c>
       <c r="I25" t="n">
-        <v>5.162919622288307</v>
+        <v>5.162919622288302</v>
       </c>
       <c r="J25" t="n">
-        <v>5.162919622288307</v>
+        <v>5.162919622288302</v>
       </c>
       <c r="K25" t="n">
-        <v>5.162919622288307</v>
+        <v>5.162919622288302</v>
       </c>
       <c r="L25" t="n">
-        <v>5.162919622288307</v>
+        <v>5.162919622288302</v>
       </c>
       <c r="M25" t="n">
-        <v>5.162919622288307</v>
+        <v>5.162919622288302</v>
       </c>
       <c r="N25" t="n">
-        <v>5.162919622288307</v>
+        <v>5.162919622288302</v>
       </c>
       <c r="O25" t="n">
-        <v>5.162919622288307</v>
+        <v>5.162919622288302</v>
       </c>
       <c r="P25" t="n">
-        <v>5.162919622288307</v>
+        <v>5.162919622288302</v>
       </c>
       <c r="Q25" t="n">
-        <v>5.162919622288307</v>
+        <v>5.162919622288302</v>
       </c>
       <c r="R25" t="n">
-        <v>5.162919622288307</v>
+        <v>5.162919622288302</v>
       </c>
       <c r="S25" t="n">
-        <v>5.162919622288307</v>
+        <v>5.162919622288302</v>
       </c>
       <c r="T25" t="n">
-        <v>5.162919622288307</v>
+        <v>5.162919622288302</v>
       </c>
       <c r="U25" t="n">
-        <v>5.162919622288307</v>
+        <v>5.162919622288302</v>
       </c>
       <c r="V25" t="n">
-        <v>5.162919622288307</v>
+        <v>5.162919622288302</v>
       </c>
       <c r="W25" t="n">
-        <v>5.162919622288307</v>
+        <v>5.162919622288302</v>
       </c>
       <c r="X25" t="n">
-        <v>5.162919622288307</v>
+        <v>5.162919622288302</v>
       </c>
       <c r="Y25" t="n">
-        <v>5.162919622288307</v>
+        <v>5.162919622288302</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>94.01487355470337</v>
+        <v>159.203252624</v>
       </c>
       <c r="C26" t="n">
-        <v>94.01487355470337</v>
+        <v>159.203252624</v>
       </c>
       <c r="D26" t="n">
-        <v>94.01487355470337</v>
+        <v>159.203252624</v>
       </c>
       <c r="E26" t="n">
-        <v>94.01487355470337</v>
+        <v>159.203252624</v>
       </c>
       <c r="F26" t="n">
-        <v>94.01487355470337</v>
+        <v>94.01487355470323</v>
       </c>
       <c r="G26" t="n">
-        <v>70.35129869158513</v>
+        <v>28.82649448540647</v>
       </c>
       <c r="H26" t="n">
-        <v>5.162919622288307</v>
+        <v>28.82649448540647</v>
       </c>
       <c r="I26" t="n">
-        <v>5.162919622288307</v>
+        <v>5.162919622288302</v>
       </c>
       <c r="J26" t="n">
-        <v>5.162919622288307</v>
+        <v>5.162919622288302</v>
       </c>
       <c r="K26" t="n">
-        <v>5.162919622288307</v>
+        <v>5.162919622288302</v>
       </c>
       <c r="L26" t="n">
-        <v>34.12122363476857</v>
+        <v>34.1212236347685</v>
       </c>
       <c r="M26" t="n">
-        <v>98.01235396058637</v>
+        <v>98.01235396058624</v>
       </c>
       <c r="N26" t="n">
-        <v>161.9034842864042</v>
+        <v>161.903484286404</v>
       </c>
       <c r="O26" t="n">
-        <v>214.2317059869946</v>
+        <v>214.2317059869944</v>
       </c>
       <c r="P26" t="n">
-        <v>224.391631693297</v>
+        <v>224.3916316932967</v>
       </c>
       <c r="Q26" t="n">
-        <v>224.391631693297</v>
+        <v>224.3916316932967</v>
       </c>
       <c r="R26" t="n">
-        <v>224.391631693297</v>
+        <v>224.3916316932967</v>
       </c>
       <c r="S26" t="n">
-        <v>224.391631693297</v>
+        <v>224.3916316932967</v>
       </c>
       <c r="T26" t="n">
-        <v>224.391631693297</v>
+        <v>224.3916316932967</v>
       </c>
       <c r="U26" t="n">
-        <v>224.391631693297</v>
+        <v>224.3916316932967</v>
       </c>
       <c r="V26" t="n">
-        <v>224.391631693297</v>
+        <v>224.3916316932967</v>
       </c>
       <c r="W26" t="n">
-        <v>159.2032526240002</v>
+        <v>224.3916316932967</v>
       </c>
       <c r="X26" t="n">
-        <v>159.2032526240002</v>
+        <v>224.3916316932967</v>
       </c>
       <c r="Y26" t="n">
-        <v>94.01487355470337</v>
+        <v>159.203252624</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6279,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>5.162919622288307</v>
+        <v>127.7692229758216</v>
       </c>
       <c r="C27" t="n">
-        <v>5.162919622288307</v>
+        <v>127.7692229758216</v>
       </c>
       <c r="D27" t="n">
-        <v>5.162919622288307</v>
+        <v>127.7692229758216</v>
       </c>
       <c r="E27" t="n">
-        <v>5.162919622288307</v>
+        <v>62.58084390652485</v>
       </c>
       <c r="F27" t="n">
-        <v>5.162919622288307</v>
+        <v>62.58084390652485</v>
       </c>
       <c r="G27" t="n">
-        <v>5.162919622288307</v>
+        <v>5.162919622288302</v>
       </c>
       <c r="H27" t="n">
-        <v>5.162919622288307</v>
+        <v>5.162919622288302</v>
       </c>
       <c r="I27" t="n">
-        <v>5.162919622288307</v>
+        <v>5.162919622288302</v>
       </c>
       <c r="J27" t="n">
-        <v>5.162919622288307</v>
+        <v>5.162919622288302</v>
       </c>
       <c r="K27" t="n">
-        <v>5.162919622288307</v>
+        <v>12.34382619587459</v>
       </c>
       <c r="L27" t="n">
-        <v>61.14107584454172</v>
+        <v>68.32198241812797</v>
       </c>
       <c r="M27" t="n">
-        <v>125.0322061703595</v>
+        <v>132.2131127439457</v>
       </c>
       <c r="N27" t="n">
-        <v>157.0231623139765</v>
+        <v>196.1042430697635</v>
       </c>
       <c r="O27" t="n">
-        <v>220.9142926397943</v>
+        <v>220.9142926397941</v>
       </c>
       <c r="P27" t="n">
-        <v>258.1459811144153</v>
+        <v>258.1459811144151</v>
       </c>
       <c r="Q27" t="n">
-        <v>258.1459811144153</v>
+        <v>258.1459811144151</v>
       </c>
       <c r="R27" t="n">
-        <v>258.1459811144153</v>
+        <v>258.1459811144151</v>
       </c>
       <c r="S27" t="n">
-        <v>200.7280568301788</v>
+        <v>258.1459811144151</v>
       </c>
       <c r="T27" t="n">
-        <v>135.5396777608819</v>
+        <v>192.9576020451184</v>
       </c>
       <c r="U27" t="n">
-        <v>70.35129869158513</v>
+        <v>192.9576020451184</v>
       </c>
       <c r="V27" t="n">
-        <v>5.162919622288307</v>
+        <v>192.9576020451184</v>
       </c>
       <c r="W27" t="n">
-        <v>5.162919622288307</v>
+        <v>127.7692229758216</v>
       </c>
       <c r="X27" t="n">
-        <v>5.162919622288307</v>
+        <v>127.7692229758216</v>
       </c>
       <c r="Y27" t="n">
-        <v>5.162919622288307</v>
+        <v>127.7692229758216</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>5.162919622288307</v>
+        <v>258.1459811144151</v>
       </c>
       <c r="C28" t="n">
-        <v>5.162919622288307</v>
+        <v>258.1459811144151</v>
       </c>
       <c r="D28" t="n">
-        <v>5.162919622288307</v>
+        <v>258.1459811144151</v>
       </c>
       <c r="E28" t="n">
-        <v>5.162919622288307</v>
+        <v>258.1459811144151</v>
       </c>
       <c r="F28" t="n">
-        <v>5.162919622288307</v>
+        <v>258.1459811144151</v>
       </c>
       <c r="G28" t="n">
-        <v>5.162919622288307</v>
+        <v>258.1459811144151</v>
       </c>
       <c r="H28" t="n">
-        <v>5.162919622288307</v>
+        <v>258.1459811144151</v>
       </c>
       <c r="I28" t="n">
-        <v>5.162919622288307</v>
+        <v>258.1459811144151</v>
       </c>
       <c r="J28" t="n">
-        <v>5.162919622288307</v>
+        <v>258.1459811144151</v>
       </c>
       <c r="K28" t="n">
-        <v>5.162919622288307</v>
+        <v>258.1459811144151</v>
       </c>
       <c r="L28" t="n">
-        <v>5.162919622288307</v>
+        <v>258.1459811144151</v>
       </c>
       <c r="M28" t="n">
-        <v>5.162919622288307</v>
+        <v>258.1459811144151</v>
       </c>
       <c r="N28" t="n">
-        <v>5.162919622288307</v>
+        <v>258.1459811144151</v>
       </c>
       <c r="O28" t="n">
-        <v>5.162919622288307</v>
+        <v>258.1459811144151</v>
       </c>
       <c r="P28" t="n">
-        <v>5.162919622288307</v>
+        <v>258.1459811144151</v>
       </c>
       <c r="Q28" t="n">
-        <v>5.162919622288307</v>
+        <v>258.1459811144151</v>
       </c>
       <c r="R28" t="n">
-        <v>5.162919622288307</v>
+        <v>258.1459811144151</v>
       </c>
       <c r="S28" t="n">
-        <v>5.162919622288307</v>
+        <v>258.1459811144151</v>
       </c>
       <c r="T28" t="n">
-        <v>5.162919622288307</v>
+        <v>258.1459811144151</v>
       </c>
       <c r="U28" t="n">
-        <v>5.162919622288307</v>
+        <v>258.1459811144151</v>
       </c>
       <c r="V28" t="n">
-        <v>5.162919622288307</v>
+        <v>258.1459811144151</v>
       </c>
       <c r="W28" t="n">
-        <v>5.162919622288307</v>
+        <v>258.1459811144151</v>
       </c>
       <c r="X28" t="n">
-        <v>5.162919622288307</v>
+        <v>258.1459811144151</v>
       </c>
       <c r="Y28" t="n">
-        <v>5.162919622288307</v>
+        <v>258.1459811144151</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>5.162919622288307</v>
+        <v>94.01487355470323</v>
       </c>
       <c r="C29" t="n">
-        <v>5.162919622288307</v>
+        <v>94.01487355470323</v>
       </c>
       <c r="D29" t="n">
-        <v>5.162919622288307</v>
+        <v>94.01487355470323</v>
       </c>
       <c r="E29" t="n">
-        <v>5.162919622288307</v>
+        <v>94.01487355470323</v>
       </c>
       <c r="F29" t="n">
-        <v>5.162919622288307</v>
+        <v>94.01487355470323</v>
       </c>
       <c r="G29" t="n">
-        <v>5.162919622288307</v>
+        <v>94.01487355470323</v>
       </c>
       <c r="H29" t="n">
-        <v>5.162919622288307</v>
+        <v>94.01487355470323</v>
       </c>
       <c r="I29" t="n">
-        <v>5.162919622288307</v>
+        <v>44.0633745122261</v>
       </c>
       <c r="J29" t="n">
-        <v>5.162919622288307</v>
+        <v>5.162919622288302</v>
       </c>
       <c r="K29" t="n">
-        <v>5.162919622288307</v>
+        <v>5.162919622288302</v>
       </c>
       <c r="L29" t="n">
-        <v>34.12122363476857</v>
+        <v>34.1212236347685</v>
       </c>
       <c r="M29" t="n">
-        <v>98.01235396058637</v>
+        <v>98.01235396058624</v>
       </c>
       <c r="N29" t="n">
-        <v>161.9034842864042</v>
+        <v>161.903484286404</v>
       </c>
       <c r="O29" t="n">
-        <v>214.2317059869946</v>
+        <v>214.2317059869944</v>
       </c>
       <c r="P29" t="n">
-        <v>224.391631693297</v>
+        <v>224.3916316932967</v>
       </c>
       <c r="Q29" t="n">
-        <v>224.391631693297</v>
+        <v>224.3916316932967</v>
       </c>
       <c r="R29" t="n">
-        <v>200.7280568301788</v>
+        <v>224.3916316932967</v>
       </c>
       <c r="S29" t="n">
-        <v>200.7280568301788</v>
+        <v>159.203252624</v>
       </c>
       <c r="T29" t="n">
-        <v>200.7280568301788</v>
+        <v>159.203252624</v>
       </c>
       <c r="U29" t="n">
-        <v>200.7280568301788</v>
+        <v>159.203252624</v>
       </c>
       <c r="V29" t="n">
-        <v>200.7280568301788</v>
+        <v>159.203252624</v>
       </c>
       <c r="W29" t="n">
-        <v>135.5396777608819</v>
+        <v>159.203252624</v>
       </c>
       <c r="X29" t="n">
-        <v>70.35129869158513</v>
+        <v>159.203252624</v>
       </c>
       <c r="Y29" t="n">
-        <v>5.162919622288307</v>
+        <v>159.203252624</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6516,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>5.162919622288307</v>
+        <v>47.53168953386405</v>
       </c>
       <c r="C30" t="n">
-        <v>5.162919622288307</v>
+        <v>47.53168953386405</v>
       </c>
       <c r="D30" t="n">
-        <v>5.162919622288307</v>
+        <v>47.53168953386405</v>
       </c>
       <c r="E30" t="n">
-        <v>5.162919622288307</v>
+        <v>47.53168953386405</v>
       </c>
       <c r="F30" t="n">
-        <v>5.162919622288307</v>
+        <v>47.53168953386405</v>
       </c>
       <c r="G30" t="n">
-        <v>5.162919622288307</v>
+        <v>47.53168953386405</v>
       </c>
       <c r="H30" t="n">
-        <v>5.162919622288307</v>
+        <v>47.53168953386405</v>
       </c>
       <c r="I30" t="n">
-        <v>5.162919622288307</v>
+        <v>47.53168953386405</v>
       </c>
       <c r="J30" t="n">
-        <v>5.162919622288307</v>
+        <v>5.162919622288302</v>
       </c>
       <c r="K30" t="n">
         <v>12.34382619587459</v>
       </c>
       <c r="L30" t="n">
-        <v>68.32198241812802</v>
+        <v>68.32198241812797</v>
       </c>
       <c r="M30" t="n">
-        <v>132.2131127439458</v>
+        <v>93.1320319881586</v>
       </c>
       <c r="N30" t="n">
-        <v>157.0231623139765</v>
+        <v>157.0231623139763</v>
       </c>
       <c r="O30" t="n">
-        <v>220.9142926397943</v>
+        <v>220.9142926397941</v>
       </c>
       <c r="P30" t="n">
-        <v>258.1459811144153</v>
+        <v>258.1459811144151</v>
       </c>
       <c r="Q30" t="n">
-        <v>258.1459811144153</v>
+        <v>232.60695584985</v>
       </c>
       <c r="R30" t="n">
-        <v>258.1459811144153</v>
+        <v>177.9084476724576</v>
       </c>
       <c r="S30" t="n">
-        <v>258.1459811144153</v>
+        <v>177.9084476724576</v>
       </c>
       <c r="T30" t="n">
-        <v>258.1459811144153</v>
+        <v>177.9084476724576</v>
       </c>
       <c r="U30" t="n">
-        <v>192.9576020451185</v>
+        <v>177.9084476724576</v>
       </c>
       <c r="V30" t="n">
-        <v>127.7692229758217</v>
+        <v>177.9084476724576</v>
       </c>
       <c r="W30" t="n">
-        <v>62.5808439065249</v>
+        <v>177.9084476724576</v>
       </c>
       <c r="X30" t="n">
-        <v>5.162919622288307</v>
+        <v>112.7200686031608</v>
       </c>
       <c r="Y30" t="n">
-        <v>5.162919622288307</v>
+        <v>112.7200686031608</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>5.162919622288307</v>
+        <v>5.162919622288302</v>
       </c>
       <c r="C31" t="n">
-        <v>5.162919622288307</v>
+        <v>5.162919622288302</v>
       </c>
       <c r="D31" t="n">
-        <v>5.162919622288307</v>
+        <v>5.162919622288302</v>
       </c>
       <c r="E31" t="n">
-        <v>5.162919622288307</v>
+        <v>5.162919622288302</v>
       </c>
       <c r="F31" t="n">
-        <v>5.162919622288307</v>
+        <v>5.162919622288302</v>
       </c>
       <c r="G31" t="n">
-        <v>5.162919622288307</v>
+        <v>5.162919622288302</v>
       </c>
       <c r="H31" t="n">
-        <v>5.162919622288307</v>
+        <v>5.162919622288302</v>
       </c>
       <c r="I31" t="n">
-        <v>5.162919622288307</v>
+        <v>5.162919622288302</v>
       </c>
       <c r="J31" t="n">
-        <v>5.162919622288307</v>
+        <v>5.162919622288302</v>
       </c>
       <c r="K31" t="n">
-        <v>5.162919622288307</v>
+        <v>5.162919622288302</v>
       </c>
       <c r="L31" t="n">
-        <v>5.162919622288307</v>
+        <v>5.162919622288302</v>
       </c>
       <c r="M31" t="n">
-        <v>5.162919622288307</v>
+        <v>5.162919622288302</v>
       </c>
       <c r="N31" t="n">
-        <v>5.162919622288307</v>
+        <v>5.162919622288302</v>
       </c>
       <c r="O31" t="n">
-        <v>5.162919622288307</v>
+        <v>5.162919622288302</v>
       </c>
       <c r="P31" t="n">
-        <v>5.162919622288307</v>
+        <v>5.162919622288302</v>
       </c>
       <c r="Q31" t="n">
-        <v>5.162919622288307</v>
+        <v>5.162919622288302</v>
       </c>
       <c r="R31" t="n">
-        <v>5.162919622288307</v>
+        <v>5.162919622288302</v>
       </c>
       <c r="S31" t="n">
-        <v>5.162919622288307</v>
+        <v>5.162919622288302</v>
       </c>
       <c r="T31" t="n">
-        <v>5.162919622288307</v>
+        <v>5.162919622288302</v>
       </c>
       <c r="U31" t="n">
-        <v>5.162919622288307</v>
+        <v>5.162919622288302</v>
       </c>
       <c r="V31" t="n">
-        <v>5.162919622288307</v>
+        <v>5.162919622288302</v>
       </c>
       <c r="W31" t="n">
-        <v>5.162919622288307</v>
+        <v>5.162919622288302</v>
       </c>
       <c r="X31" t="n">
-        <v>5.162919622288307</v>
+        <v>5.162919622288302</v>
       </c>
       <c r="Y31" t="n">
-        <v>5.162919622288307</v>
+        <v>5.162919622288302</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>5.162919622288307</v>
+        <v>135.5396777608818</v>
       </c>
       <c r="C32" t="n">
-        <v>5.162919622288307</v>
+        <v>70.35129869158506</v>
       </c>
       <c r="D32" t="n">
-        <v>5.162919622288307</v>
+        <v>5.162919622288302</v>
       </c>
       <c r="E32" t="n">
-        <v>5.162919622288307</v>
+        <v>5.162919622288302</v>
       </c>
       <c r="F32" t="n">
-        <v>5.162919622288307</v>
+        <v>5.162919622288302</v>
       </c>
       <c r="G32" t="n">
-        <v>5.162919622288307</v>
+        <v>5.162919622288302</v>
       </c>
       <c r="H32" t="n">
-        <v>5.162919622288307</v>
+        <v>5.162919622288302</v>
       </c>
       <c r="I32" t="n">
-        <v>5.162919622288307</v>
+        <v>5.162919622288302</v>
       </c>
       <c r="J32" t="n">
-        <v>5.162919622288307</v>
+        <v>5.162919622288302</v>
       </c>
       <c r="K32" t="n">
-        <v>5.162919622288307</v>
+        <v>5.162919622288302</v>
       </c>
       <c r="L32" t="n">
-        <v>34.12122363476857</v>
+        <v>34.1212236347685</v>
       </c>
       <c r="M32" t="n">
-        <v>98.01235396058637</v>
+        <v>98.01235396058624</v>
       </c>
       <c r="N32" t="n">
-        <v>161.9034842864042</v>
+        <v>161.903484286404</v>
       </c>
       <c r="O32" t="n">
-        <v>214.2317059869946</v>
+        <v>214.2317059869944</v>
       </c>
       <c r="P32" t="n">
-        <v>224.391631693297</v>
+        <v>224.3916316932967</v>
       </c>
       <c r="Q32" t="n">
-        <v>224.391631693297</v>
+        <v>224.3916316932967</v>
       </c>
       <c r="R32" t="n">
-        <v>159.2032526240002</v>
+        <v>224.3916316932967</v>
       </c>
       <c r="S32" t="n">
-        <v>94.01487355470337</v>
+        <v>224.3916316932967</v>
       </c>
       <c r="T32" t="n">
-        <v>94.01487355470337</v>
+        <v>224.3916316932967</v>
       </c>
       <c r="U32" t="n">
-        <v>28.82649448540656</v>
+        <v>224.3916316932967</v>
       </c>
       <c r="V32" t="n">
-        <v>28.82649448540656</v>
+        <v>224.3916316932967</v>
       </c>
       <c r="W32" t="n">
-        <v>5.162919622288307</v>
+        <v>224.3916316932967</v>
       </c>
       <c r="X32" t="n">
-        <v>5.162919622288307</v>
+        <v>224.3916316932967</v>
       </c>
       <c r="Y32" t="n">
-        <v>5.162919622288307</v>
+        <v>159.203252624</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>62.5808439065249</v>
+        <v>5.162919622288302</v>
       </c>
       <c r="C33" t="n">
-        <v>62.5808439065249</v>
+        <v>5.162919622288302</v>
       </c>
       <c r="D33" t="n">
-        <v>62.5808439065249</v>
+        <v>5.162919622288302</v>
       </c>
       <c r="E33" t="n">
-        <v>62.5808439065249</v>
+        <v>5.162919622288302</v>
       </c>
       <c r="F33" t="n">
-        <v>62.5808439065249</v>
+        <v>5.162919622288302</v>
       </c>
       <c r="G33" t="n">
-        <v>5.162919622288307</v>
+        <v>5.162919622288302</v>
       </c>
       <c r="H33" t="n">
-        <v>5.162919622288307</v>
+        <v>5.162919622288302</v>
       </c>
       <c r="I33" t="n">
-        <v>5.162919622288307</v>
+        <v>5.162919622288302</v>
       </c>
       <c r="J33" t="n">
-        <v>5.162919622288307</v>
+        <v>5.162919622288302</v>
       </c>
       <c r="K33" t="n">
-        <v>10.49443391470851</v>
+        <v>12.34382619587459</v>
       </c>
       <c r="L33" t="n">
-        <v>66.47259013696193</v>
+        <v>68.32198241812797</v>
       </c>
       <c r="M33" t="n">
-        <v>130.3637204627797</v>
+        <v>132.2131127439457</v>
       </c>
       <c r="N33" t="n">
-        <v>194.2548507885975</v>
+        <v>196.1042430697635</v>
       </c>
       <c r="O33" t="n">
-        <v>258.1459811144153</v>
+        <v>220.9142926397941</v>
       </c>
       <c r="P33" t="n">
-        <v>258.1459811144153</v>
+        <v>258.1459811144151</v>
       </c>
       <c r="Q33" t="n">
-        <v>258.1459811144153</v>
+        <v>258.1459811144151</v>
       </c>
       <c r="R33" t="n">
-        <v>192.9576020451185</v>
+        <v>258.1459811144151</v>
       </c>
       <c r="S33" t="n">
-        <v>192.9576020451185</v>
+        <v>258.1459811144151</v>
       </c>
       <c r="T33" t="n">
-        <v>192.9576020451185</v>
+        <v>192.9576020451184</v>
       </c>
       <c r="U33" t="n">
-        <v>192.9576020451185</v>
+        <v>127.7692229758216</v>
       </c>
       <c r="V33" t="n">
-        <v>127.7692229758217</v>
+        <v>62.58084390652485</v>
       </c>
       <c r="W33" t="n">
-        <v>62.5808439065249</v>
+        <v>5.162919622288302</v>
       </c>
       <c r="X33" t="n">
-        <v>62.5808439065249</v>
+        <v>5.162919622288302</v>
       </c>
       <c r="Y33" t="n">
-        <v>62.5808439065249</v>
+        <v>5.162919622288302</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>5.162919622288307</v>
+        <v>258.1459811144151</v>
       </c>
       <c r="C34" t="n">
-        <v>5.162919622288307</v>
+        <v>258.1459811144151</v>
       </c>
       <c r="D34" t="n">
-        <v>5.162919622288307</v>
+        <v>258.1459811144151</v>
       </c>
       <c r="E34" t="n">
-        <v>5.162919622288307</v>
+        <v>258.1459811144151</v>
       </c>
       <c r="F34" t="n">
-        <v>5.162919622288307</v>
+        <v>258.1459811144151</v>
       </c>
       <c r="G34" t="n">
-        <v>5.162919622288307</v>
+        <v>258.1459811144151</v>
       </c>
       <c r="H34" t="n">
-        <v>5.162919622288307</v>
+        <v>258.1459811144151</v>
       </c>
       <c r="I34" t="n">
-        <v>5.162919622288307</v>
+        <v>258.1459811144151</v>
       </c>
       <c r="J34" t="n">
-        <v>5.162919622288307</v>
+        <v>258.1459811144151</v>
       </c>
       <c r="K34" t="n">
-        <v>5.162919622288307</v>
+        <v>258.1459811144151</v>
       </c>
       <c r="L34" t="n">
-        <v>5.162919622288307</v>
+        <v>258.1459811144151</v>
       </c>
       <c r="M34" t="n">
-        <v>5.162919622288307</v>
+        <v>258.1459811144151</v>
       </c>
       <c r="N34" t="n">
-        <v>5.162919622288307</v>
+        <v>258.1459811144151</v>
       </c>
       <c r="O34" t="n">
-        <v>5.162919622288307</v>
+        <v>258.1459811144151</v>
       </c>
       <c r="P34" t="n">
-        <v>5.162919622288307</v>
+        <v>258.1459811144151</v>
       </c>
       <c r="Q34" t="n">
-        <v>5.162919622288307</v>
+        <v>258.1459811144151</v>
       </c>
       <c r="R34" t="n">
-        <v>5.162919622288307</v>
+        <v>258.1459811144151</v>
       </c>
       <c r="S34" t="n">
-        <v>5.162919622288307</v>
+        <v>258.1459811144151</v>
       </c>
       <c r="T34" t="n">
-        <v>5.162919622288307</v>
+        <v>258.1459811144151</v>
       </c>
       <c r="U34" t="n">
-        <v>5.162919622288307</v>
+        <v>258.1459811144151</v>
       </c>
       <c r="V34" t="n">
-        <v>5.162919622288307</v>
+        <v>258.1459811144151</v>
       </c>
       <c r="W34" t="n">
-        <v>5.162919622288307</v>
+        <v>258.1459811144151</v>
       </c>
       <c r="X34" t="n">
-        <v>5.162919622288307</v>
+        <v>258.1459811144151</v>
       </c>
       <c r="Y34" t="n">
-        <v>5.162919622288307</v>
+        <v>258.1459811144151</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>93.55004486392289</v>
+        <v>4.228543167724476</v>
       </c>
       <c r="C35" t="n">
-        <v>93.55004486392289</v>
+        <v>4.228543167724476</v>
       </c>
       <c r="D35" t="n">
-        <v>93.55004486392289</v>
+        <v>4.228543167724476</v>
       </c>
       <c r="E35" t="n">
-        <v>93.55004486392289</v>
+        <v>4.228543167724476</v>
       </c>
       <c r="F35" t="n">
-        <v>40.15934830174515</v>
+        <v>4.228543167724476</v>
       </c>
       <c r="G35" t="n">
         <v>4.228543167724476</v>
@@ -6941,10 +6941,10 @@
         <v>4.228543167724476</v>
       </c>
       <c r="L35" t="n">
-        <v>33.18684718020474</v>
+        <v>33.18684718020468</v>
       </c>
       <c r="M35" t="n">
-        <v>85.51506888079513</v>
+        <v>85.51506888079507</v>
       </c>
       <c r="N35" t="n">
         <v>137.8432905813855</v>
@@ -6953,34 +6953,34 @@
         <v>190.1715122819759</v>
       </c>
       <c r="P35" t="n">
-        <v>200.3314379882784</v>
+        <v>200.3314379882783</v>
       </c>
       <c r="Q35" t="n">
-        <v>200.3314379882784</v>
+        <v>164.4006328542577</v>
       </c>
       <c r="R35" t="n">
-        <v>200.3314379882784</v>
+        <v>164.4006328542577</v>
       </c>
       <c r="S35" t="n">
-        <v>200.3314379882784</v>
+        <v>164.4006328542577</v>
       </c>
       <c r="T35" t="n">
-        <v>146.9407414261006</v>
+        <v>164.4006328542577</v>
       </c>
       <c r="U35" t="n">
-        <v>146.9407414261006</v>
+        <v>164.4006328542577</v>
       </c>
       <c r="V35" t="n">
-        <v>146.9407414261006</v>
+        <v>164.4006328542577</v>
       </c>
       <c r="W35" t="n">
-        <v>146.9407414261006</v>
+        <v>111.0099362920799</v>
       </c>
       <c r="X35" t="n">
-        <v>146.9407414261006</v>
+        <v>57.61923972990221</v>
       </c>
       <c r="Y35" t="n">
-        <v>146.9407414261006</v>
+        <v>4.228543167724476</v>
       </c>
     </row>
     <row r="36">
@@ -6990,16 +6990,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>57.61923972990221</v>
+        <v>211.4271583862238</v>
       </c>
       <c r="C36" t="n">
-        <v>4.228543167724476</v>
+        <v>158.0364618240461</v>
       </c>
       <c r="D36" t="n">
-        <v>4.228543167724476</v>
+        <v>104.6457652618683</v>
       </c>
       <c r="E36" t="n">
-        <v>4.228543167724476</v>
+        <v>51.25506869969061</v>
       </c>
       <c r="F36" t="n">
         <v>4.228543167724476</v>
@@ -7017,13 +7017,13 @@
         <v>4.228543167724476</v>
       </c>
       <c r="K36" t="n">
-        <v>11.40944974131076</v>
+        <v>4.228543167724476</v>
       </c>
       <c r="L36" t="n">
-        <v>63.73767144190116</v>
+        <v>56.55676486831487</v>
       </c>
       <c r="M36" t="n">
-        <v>116.0658931424915</v>
+        <v>69.53902651042199</v>
       </c>
       <c r="N36" t="n">
         <v>121.8672482110124</v>
@@ -7047,19 +7047,19 @@
         <v>211.4271583862238</v>
       </c>
       <c r="U36" t="n">
-        <v>164.4006328542577</v>
+        <v>211.4271583862238</v>
       </c>
       <c r="V36" t="n">
-        <v>164.4006328542577</v>
+        <v>211.4271583862238</v>
       </c>
       <c r="W36" t="n">
-        <v>164.4006328542577</v>
+        <v>211.4271583862238</v>
       </c>
       <c r="X36" t="n">
-        <v>164.4006328542577</v>
+        <v>211.4271583862238</v>
       </c>
       <c r="Y36" t="n">
-        <v>111.0099362920799</v>
+        <v>211.4271583862238</v>
       </c>
     </row>
     <row r="37">
@@ -7148,13 +7148,13 @@
         </is>
       </c>
       <c r="B38" t="n">
+        <v>200.3314379882783</v>
+      </c>
+      <c r="C38" t="n">
+        <v>164.4006328542577</v>
+      </c>
+      <c r="D38" t="n">
         <v>111.0099362920799</v>
-      </c>
-      <c r="C38" t="n">
-        <v>111.0099362920799</v>
-      </c>
-      <c r="D38" t="n">
-        <v>57.61923972990221</v>
       </c>
       <c r="E38" t="n">
         <v>57.61923972990221</v>
@@ -7178,10 +7178,10 @@
         <v>4.228543167724476</v>
       </c>
       <c r="L38" t="n">
-        <v>33.18684718020474</v>
+        <v>33.18684718020468</v>
       </c>
       <c r="M38" t="n">
-        <v>85.51506888079513</v>
+        <v>85.51506888079507</v>
       </c>
       <c r="N38" t="n">
         <v>137.8432905813855</v>
@@ -7190,34 +7190,34 @@
         <v>190.1715122819759</v>
       </c>
       <c r="P38" t="n">
-        <v>200.3314379882784</v>
+        <v>200.3314379882783</v>
       </c>
       <c r="Q38" t="n">
-        <v>164.4006328542577</v>
+        <v>200.3314379882783</v>
       </c>
       <c r="R38" t="n">
-        <v>164.4006328542577</v>
+        <v>200.3314379882783</v>
       </c>
       <c r="S38" t="n">
-        <v>164.4006328542577</v>
+        <v>200.3314379882783</v>
       </c>
       <c r="T38" t="n">
-        <v>164.4006328542577</v>
+        <v>200.3314379882783</v>
       </c>
       <c r="U38" t="n">
-        <v>164.4006328542577</v>
+        <v>200.3314379882783</v>
       </c>
       <c r="V38" t="n">
-        <v>164.4006328542577</v>
+        <v>200.3314379882783</v>
       </c>
       <c r="W38" t="n">
-        <v>111.0099362920799</v>
+        <v>200.3314379882783</v>
       </c>
       <c r="X38" t="n">
-        <v>111.0099362920799</v>
+        <v>200.3314379882783</v>
       </c>
       <c r="Y38" t="n">
-        <v>111.0099362920799</v>
+        <v>200.3314379882783</v>
       </c>
     </row>
     <row r="39">
@@ -7227,22 +7227,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>158.0364618240461</v>
+        <v>4.228543167724476</v>
       </c>
       <c r="C39" t="n">
-        <v>158.0364618240461</v>
+        <v>4.228543167724476</v>
       </c>
       <c r="D39" t="n">
-        <v>104.6457652618683</v>
+        <v>4.228543167724476</v>
       </c>
       <c r="E39" t="n">
-        <v>51.25506869969061</v>
+        <v>4.228543167724476</v>
       </c>
       <c r="F39" t="n">
-        <v>51.25506869969061</v>
+        <v>4.228543167724476</v>
       </c>
       <c r="G39" t="n">
-        <v>51.25506869969061</v>
+        <v>4.228543167724476</v>
       </c>
       <c r="H39" t="n">
         <v>4.228543167724476</v>
@@ -7260,10 +7260,10 @@
         <v>63.73767144190116</v>
       </c>
       <c r="M39" t="n">
-        <v>69.53902651042196</v>
+        <v>116.0658931424915</v>
       </c>
       <c r="N39" t="n">
-        <v>121.8672482110124</v>
+        <v>168.394114843082</v>
       </c>
       <c r="O39" t="n">
         <v>174.1954699116028</v>
@@ -7281,22 +7281,22 @@
         <v>211.4271583862238</v>
       </c>
       <c r="T39" t="n">
-        <v>158.0364618240461</v>
+        <v>211.4271583862238</v>
       </c>
       <c r="U39" t="n">
         <v>158.0364618240461</v>
       </c>
       <c r="V39" t="n">
-        <v>158.0364618240461</v>
+        <v>104.6457652618683</v>
       </c>
       <c r="W39" t="n">
-        <v>158.0364618240461</v>
+        <v>104.6457652618683</v>
       </c>
       <c r="X39" t="n">
-        <v>158.0364618240461</v>
+        <v>104.6457652618683</v>
       </c>
       <c r="Y39" t="n">
-        <v>158.0364618240461</v>
+        <v>51.25506869969061</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>4.228543167724476</v>
+        <v>211.4271583862238</v>
       </c>
       <c r="C40" t="n">
-        <v>4.228543167724476</v>
+        <v>211.4271583862238</v>
       </c>
       <c r="D40" t="n">
-        <v>4.228543167724476</v>
+        <v>211.4271583862238</v>
       </c>
       <c r="E40" t="n">
-        <v>4.228543167724476</v>
+        <v>211.4271583862238</v>
       </c>
       <c r="F40" t="n">
-        <v>4.228543167724476</v>
+        <v>211.4271583862238</v>
       </c>
       <c r="G40" t="n">
-        <v>4.228543167724476</v>
+        <v>211.4271583862238</v>
       </c>
       <c r="H40" t="n">
-        <v>4.228543167724476</v>
+        <v>211.4271583862238</v>
       </c>
       <c r="I40" t="n">
-        <v>4.228543167724476</v>
+        <v>211.4271583862238</v>
       </c>
       <c r="J40" t="n">
-        <v>4.228543167724476</v>
+        <v>211.4271583862238</v>
       </c>
       <c r="K40" t="n">
-        <v>4.228543167724476</v>
+        <v>211.4271583862238</v>
       </c>
       <c r="L40" t="n">
-        <v>4.228543167724476</v>
+        <v>211.4271583862238</v>
       </c>
       <c r="M40" t="n">
-        <v>4.228543167724476</v>
+        <v>211.4271583862238</v>
       </c>
       <c r="N40" t="n">
-        <v>4.228543167724476</v>
+        <v>211.4271583862238</v>
       </c>
       <c r="O40" t="n">
-        <v>4.228543167724476</v>
+        <v>211.4271583862238</v>
       </c>
       <c r="P40" t="n">
-        <v>4.228543167724476</v>
+        <v>211.4271583862238</v>
       </c>
       <c r="Q40" t="n">
-        <v>4.228543167724476</v>
+        <v>211.4271583862238</v>
       </c>
       <c r="R40" t="n">
-        <v>4.228543167724476</v>
+        <v>211.4271583862238</v>
       </c>
       <c r="S40" t="n">
-        <v>4.228543167724476</v>
+        <v>211.4271583862238</v>
       </c>
       <c r="T40" t="n">
-        <v>4.228543167724476</v>
+        <v>211.4271583862238</v>
       </c>
       <c r="U40" t="n">
-        <v>4.228543167724476</v>
+        <v>211.4271583862238</v>
       </c>
       <c r="V40" t="n">
-        <v>4.228543167724476</v>
+        <v>211.4271583862238</v>
       </c>
       <c r="W40" t="n">
-        <v>4.228543167724476</v>
+        <v>211.4271583862238</v>
       </c>
       <c r="X40" t="n">
-        <v>4.228543167724476</v>
+        <v>211.4271583862238</v>
       </c>
       <c r="Y40" t="n">
-        <v>4.228543167724476</v>
+        <v>211.4271583862238</v>
       </c>
     </row>
     <row r="41">
@@ -7385,13 +7385,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>111.0099362920799</v>
+        <v>164.4006328542577</v>
       </c>
       <c r="C41" t="n">
-        <v>111.0099362920799</v>
+        <v>164.4006328542577</v>
       </c>
       <c r="D41" t="n">
-        <v>111.0099362920799</v>
+        <v>164.4006328542577</v>
       </c>
       <c r="E41" t="n">
         <v>111.0099362920799</v>
@@ -7415,10 +7415,10 @@
         <v>4.228543167724476</v>
       </c>
       <c r="L41" t="n">
-        <v>33.18684718020474</v>
+        <v>33.18684718020468</v>
       </c>
       <c r="M41" t="n">
-        <v>85.51506888079513</v>
+        <v>85.51506888079507</v>
       </c>
       <c r="N41" t="n">
         <v>137.8432905813855</v>
@@ -7427,34 +7427,34 @@
         <v>190.1715122819759</v>
       </c>
       <c r="P41" t="n">
-        <v>200.3314379882784</v>
+        <v>200.3314379882783</v>
       </c>
       <c r="Q41" t="n">
+        <v>200.3314379882783</v>
+      </c>
+      <c r="R41" t="n">
+        <v>200.3314379882783</v>
+      </c>
+      <c r="S41" t="n">
+        <v>200.3314379882783</v>
+      </c>
+      <c r="T41" t="n">
+        <v>200.3314379882783</v>
+      </c>
+      <c r="U41" t="n">
+        <v>200.3314379882783</v>
+      </c>
+      <c r="V41" t="n">
+        <v>200.3314379882783</v>
+      </c>
+      <c r="W41" t="n">
+        <v>200.3314379882783</v>
+      </c>
+      <c r="X41" t="n">
+        <v>200.3314379882783</v>
+      </c>
+      <c r="Y41" t="n">
         <v>164.4006328542577</v>
-      </c>
-      <c r="R41" t="n">
-        <v>111.0099362920799</v>
-      </c>
-      <c r="S41" t="n">
-        <v>111.0099362920799</v>
-      </c>
-      <c r="T41" t="n">
-        <v>111.0099362920799</v>
-      </c>
-      <c r="U41" t="n">
-        <v>111.0099362920799</v>
-      </c>
-      <c r="V41" t="n">
-        <v>111.0099362920799</v>
-      </c>
-      <c r="W41" t="n">
-        <v>111.0099362920799</v>
-      </c>
-      <c r="X41" t="n">
-        <v>111.0099362920799</v>
-      </c>
-      <c r="Y41" t="n">
-        <v>111.0099362920799</v>
       </c>
     </row>
     <row r="42">
@@ -7464,16 +7464,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>51.25506869969061</v>
+        <v>104.6457652618683</v>
       </c>
       <c r="C42" t="n">
-        <v>51.25506869969061</v>
+        <v>104.6457652618683</v>
       </c>
       <c r="D42" t="n">
         <v>51.25506869969061</v>
       </c>
       <c r="E42" t="n">
-        <v>51.25506869969061</v>
+        <v>4.228543167724476</v>
       </c>
       <c r="F42" t="n">
         <v>4.228543167724476</v>
@@ -7491,16 +7491,16 @@
         <v>4.228543167724476</v>
       </c>
       <c r="K42" t="n">
-        <v>4.228543167724476</v>
+        <v>11.40944974131076</v>
       </c>
       <c r="L42" t="n">
-        <v>56.55676486831487</v>
+        <v>63.73767144190116</v>
       </c>
       <c r="M42" t="n">
-        <v>69.53902651042196</v>
+        <v>116.0658931424915</v>
       </c>
       <c r="N42" t="n">
-        <v>121.8672482110124</v>
+        <v>168.394114843082</v>
       </c>
       <c r="O42" t="n">
         <v>174.1954699116028</v>
@@ -7521,19 +7521,19 @@
         <v>211.4271583862238</v>
       </c>
       <c r="U42" t="n">
+        <v>211.4271583862238</v>
+      </c>
+      <c r="V42" t="n">
         <v>158.0364618240461</v>
       </c>
-      <c r="V42" t="n">
+      <c r="W42" t="n">
         <v>104.6457652618683</v>
       </c>
-      <c r="W42" t="n">
-        <v>51.25506869969061</v>
-      </c>
       <c r="X42" t="n">
-        <v>51.25506869969061</v>
+        <v>104.6457652618683</v>
       </c>
       <c r="Y42" t="n">
-        <v>51.25506869969061</v>
+        <v>104.6457652618683</v>
       </c>
     </row>
     <row r="43">
@@ -7622,28 +7622,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>44.88718076821937</v>
+        <v>125.3806497132159</v>
       </c>
       <c r="C44" t="n">
-        <v>44.88718076821937</v>
+        <v>125.3806497132159</v>
       </c>
       <c r="D44" t="n">
-        <v>44.88718076821937</v>
+        <v>125.3806497132159</v>
       </c>
       <c r="E44" t="n">
-        <v>44.88718076821937</v>
+        <v>83.78763565815717</v>
       </c>
       <c r="F44" t="n">
-        <v>3.294166713160651</v>
+        <v>42.19462160309845</v>
       </c>
       <c r="G44" t="n">
-        <v>3.294166713160651</v>
+        <v>42.19462160309845</v>
       </c>
       <c r="H44" t="n">
-        <v>3.294166713160651</v>
+        <v>42.19462160309845</v>
       </c>
       <c r="I44" t="n">
-        <v>3.294166713160651</v>
+        <v>42.19462160309845</v>
       </c>
       <c r="J44" t="n">
         <v>3.294166713160651</v>
@@ -7652,46 +7652,46 @@
         <v>3.294166713160651</v>
       </c>
       <c r="L44" t="n">
-        <v>32.25247072564091</v>
+        <v>32.25247072564095</v>
       </c>
       <c r="M44" t="n">
-        <v>73.01778380100396</v>
+        <v>73.017783801004</v>
       </c>
       <c r="N44" t="n">
-        <v>113.783096876367</v>
+        <v>113.7830968763671</v>
       </c>
       <c r="O44" t="n">
-        <v>154.5484099517301</v>
+        <v>154.5484099517302</v>
       </c>
       <c r="P44" t="n">
         <v>164.7083356580325</v>
       </c>
       <c r="Q44" t="n">
-        <v>128.0732088783368</v>
+        <v>164.7083356580325</v>
       </c>
       <c r="R44" t="n">
-        <v>86.4801948232781</v>
+        <v>125.3806497132159</v>
       </c>
       <c r="S44" t="n">
-        <v>86.4801948232781</v>
+        <v>125.3806497132159</v>
       </c>
       <c r="T44" t="n">
-        <v>86.4801948232781</v>
+        <v>125.3806497132159</v>
       </c>
       <c r="U44" t="n">
-        <v>86.4801948232781</v>
+        <v>125.3806497132159</v>
       </c>
       <c r="V44" t="n">
-        <v>86.4801948232781</v>
+        <v>125.3806497132159</v>
       </c>
       <c r="W44" t="n">
-        <v>86.4801948232781</v>
+        <v>125.3806497132159</v>
       </c>
       <c r="X44" t="n">
-        <v>86.4801948232781</v>
+        <v>125.3806497132159</v>
       </c>
       <c r="Y44" t="n">
-        <v>86.4801948232781</v>
+        <v>125.3806497132159</v>
       </c>
     </row>
     <row r="45">
@@ -7701,10 +7701,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3.294166713160651</v>
+        <v>44.88718076821937</v>
       </c>
       <c r="C45" t="n">
-        <v>3.294166713160651</v>
+        <v>44.88718076821937</v>
       </c>
       <c r="D45" t="n">
         <v>3.294166713160651</v>
@@ -7728,19 +7728,19 @@
         <v>3.294166713160651</v>
       </c>
       <c r="K45" t="n">
-        <v>10.47507328674694</v>
+        <v>3.294166713160651</v>
       </c>
       <c r="L45" t="n">
-        <v>51.24038636210998</v>
+        <v>44.0594797885237</v>
       </c>
       <c r="M45" t="n">
-        <v>92.00569943747303</v>
+        <v>84.82479286388674</v>
       </c>
       <c r="N45" t="n">
-        <v>132.7710125128361</v>
+        <v>86.71133410804845</v>
       </c>
       <c r="O45" t="n">
-        <v>164.7083356580325</v>
+        <v>127.4766471834115</v>
       </c>
       <c r="P45" t="n">
         <v>164.7083356580325</v>
@@ -7749,28 +7749,28 @@
         <v>139.1693103934674</v>
       </c>
       <c r="R45" t="n">
-        <v>97.57629633840867</v>
+        <v>97.57629633840864</v>
       </c>
       <c r="S45" t="n">
-        <v>97.57629633840867</v>
+        <v>97.57629633840864</v>
       </c>
       <c r="T45" t="n">
-        <v>97.57629633840867</v>
+        <v>97.57629633840864</v>
       </c>
       <c r="U45" t="n">
-        <v>86.4801948232781</v>
+        <v>55.98328228334992</v>
       </c>
       <c r="V45" t="n">
+        <v>55.98328228334992</v>
+      </c>
+      <c r="W45" t="n">
         <v>44.88718076821937</v>
       </c>
-      <c r="W45" t="n">
-        <v>3.294166713160651</v>
-      </c>
       <c r="X45" t="n">
-        <v>3.294166713160651</v>
+        <v>44.88718076821937</v>
       </c>
       <c r="Y45" t="n">
-        <v>3.294166713160651</v>
+        <v>44.88718076821937</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>164.7083356580325</v>
+        <v>3.294166713160651</v>
       </c>
       <c r="C46" t="n">
-        <v>164.7083356580325</v>
+        <v>3.294166713160651</v>
       </c>
       <c r="D46" t="n">
-        <v>164.7083356580325</v>
+        <v>3.294166713160651</v>
       </c>
       <c r="E46" t="n">
-        <v>164.7083356580325</v>
+        <v>3.294166713160651</v>
       </c>
       <c r="F46" t="n">
-        <v>164.7083356580325</v>
+        <v>3.294166713160651</v>
       </c>
       <c r="G46" t="n">
-        <v>164.7083356580325</v>
+        <v>3.294166713160651</v>
       </c>
       <c r="H46" t="n">
-        <v>164.7083356580325</v>
+        <v>3.294166713160651</v>
       </c>
       <c r="I46" t="n">
-        <v>164.7083356580325</v>
+        <v>3.294166713160651</v>
       </c>
       <c r="J46" t="n">
-        <v>164.7083356580325</v>
+        <v>3.294166713160651</v>
       </c>
       <c r="K46" t="n">
-        <v>164.7083356580325</v>
+        <v>3.294166713160651</v>
       </c>
       <c r="L46" t="n">
-        <v>164.7083356580325</v>
+        <v>3.294166713160651</v>
       </c>
       <c r="M46" t="n">
-        <v>164.7083356580325</v>
+        <v>3.294166713160651</v>
       </c>
       <c r="N46" t="n">
-        <v>164.7083356580325</v>
+        <v>3.294166713160651</v>
       </c>
       <c r="O46" t="n">
-        <v>164.7083356580325</v>
+        <v>3.294166713160651</v>
       </c>
       <c r="P46" t="n">
-        <v>164.7083356580325</v>
+        <v>3.294166713160651</v>
       </c>
       <c r="Q46" t="n">
-        <v>164.7083356580325</v>
+        <v>3.294166713160651</v>
       </c>
       <c r="R46" t="n">
-        <v>164.7083356580325</v>
+        <v>3.294166713160651</v>
       </c>
       <c r="S46" t="n">
-        <v>164.7083356580325</v>
+        <v>3.294166713160651</v>
       </c>
       <c r="T46" t="n">
-        <v>164.7083356580325</v>
+        <v>3.294166713160651</v>
       </c>
       <c r="U46" t="n">
-        <v>164.7083356580325</v>
+        <v>3.294166713160651</v>
       </c>
       <c r="V46" t="n">
-        <v>164.7083356580325</v>
+        <v>3.294166713160651</v>
       </c>
       <c r="W46" t="n">
-        <v>164.7083356580325</v>
+        <v>3.294166713160651</v>
       </c>
       <c r="X46" t="n">
-        <v>164.7083356580325</v>
+        <v>3.294166713160651</v>
       </c>
       <c r="Y46" t="n">
-        <v>164.7083356580325</v>
+        <v>3.294166713160651</v>
       </c>
     </row>
   </sheetData>
@@ -22574,10 +22574,10 @@
         <v>53.28984570098882</v>
       </c>
       <c r="L2" t="n">
-        <v>28.8362588753597</v>
+        <v>28.83625887535973</v>
       </c>
       <c r="M2" t="n">
-        <v>0.09656339947136416</v>
+        <v>0.09656339947139259</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -22732,13 +22732,13 @@
         <v>60.67557455063191</v>
       </c>
       <c r="L4" t="n">
-        <v>47.4359690887577</v>
+        <v>47.43596908875769</v>
       </c>
       <c r="M4" t="n">
         <v>46.72338342663512</v>
       </c>
       <c r="N4" t="n">
-        <v>37.67551094615366</v>
+        <v>37.67551094615368</v>
       </c>
       <c r="O4" t="n">
         <v>55.31770395088348</v>
@@ -22820,13 +22820,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>9.069265482343809</v>
+        <v>9.069265482343781</v>
       </c>
       <c r="P5" t="n">
         <v>42.58990408143413</v>
       </c>
       <c r="Q5" t="n">
-        <v>80.64258426171739</v>
+        <v>80.64258426171736</v>
       </c>
       <c r="R5" t="n">
         <v>133.1811664518765</v>
@@ -22969,10 +22969,10 @@
         <v>60.64691470913344</v>
       </c>
       <c r="L7" t="n">
-        <v>47.39929435887775</v>
+        <v>47.39929435887774</v>
       </c>
       <c r="M7" t="n">
-        <v>46.68471506615329</v>
+        <v>46.68471506615327</v>
       </c>
       <c r="N7" t="n">
         <v>37.63776203285606</v>
@@ -23279,10 +23279,10 @@
         <v>145.7319664493916</v>
       </c>
       <c r="J11" t="n">
-        <v>38.5114503410384</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>6.467652466296272</v>
+        <v>6.4676524662963</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -23300,10 +23300,10 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>40.95259142598479</v>
+        <v>40.95259142598482</v>
       </c>
       <c r="R11" t="n">
-        <v>110.093793809193</v>
+        <v>60.17695747099509</v>
       </c>
       <c r="S11" t="n">
         <v>117.8946294969817</v>
@@ -23312,13 +23312,13 @@
         <v>162.8876165213076</v>
       </c>
       <c r="U11" t="n">
-        <v>198.3545136880478</v>
+        <v>251.2113032846037</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>313.6694716347325</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -23358,7 +23358,7 @@
         <v>68.58572552873486</v>
       </c>
       <c r="J12" t="n">
-        <v>41.94508221245999</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23379,10 +23379,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>25.28363501191949</v>
+        <v>20.67245694773301</v>
       </c>
       <c r="R12" t="n">
-        <v>43.33480028665129</v>
+        <v>37.03427096674181</v>
       </c>
       <c r="S12" t="n">
         <v>102.1363519931662</v>
@@ -23391,7 +23391,7 @@
         <v>143.6861829888271</v>
       </c>
       <c r="U12" t="n">
-        <v>173.0254778580407</v>
+        <v>225.8822674545966</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -23437,28 +23437,28 @@
         <v>132.7964579761459</v>
       </c>
       <c r="J13" t="n">
-        <v>73.73656719852511</v>
+        <v>73.73656719852514</v>
       </c>
       <c r="K13" t="n">
-        <v>41.49260017923653</v>
+        <v>41.49260017923655</v>
       </c>
       <c r="L13" t="n">
-        <v>22.88836636029134</v>
+        <v>22.88836636029136</v>
       </c>
       <c r="M13" t="n">
-        <v>20.84137817734165</v>
+        <v>20.84137817734167</v>
       </c>
       <c r="N13" t="n">
-        <v>12.40892193256222</v>
+        <v>12.40892193256225</v>
       </c>
       <c r="O13" t="n">
-        <v>31.97991948089479</v>
+        <v>31.97991948089481</v>
       </c>
       <c r="P13" t="n">
-        <v>46.61886211516955</v>
+        <v>46.61886211516956</v>
       </c>
       <c r="Q13" t="n">
-        <v>88.42575430879999</v>
+        <v>88.42575430880001</v>
       </c>
       <c r="R13" t="n">
         <v>143.421937979285</v>
@@ -23516,10 +23516,10 @@
         <v>145.7319664493916</v>
       </c>
       <c r="J14" t="n">
-        <v>38.5114503410384</v>
+        <v>38.51145034103843</v>
       </c>
       <c r="K14" t="n">
-        <v>6.467652466296272</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -23537,25 +23537,25 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>5.381094343304312</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>110.093793809193</v>
+        <v>57.23700421263703</v>
       </c>
       <c r="S14" t="n">
-        <v>170.7514190935376</v>
+        <v>117.8946294969817</v>
       </c>
       <c r="T14" t="n">
-        <v>215.7444061178635</v>
+        <v>174.7363633309084</v>
       </c>
       <c r="U14" t="n">
-        <v>198.3545136880478</v>
+        <v>251.2113032846037</v>
       </c>
       <c r="V14" t="n">
-        <v>274.8954688735789</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>296.3841791208571</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -23574,13 +23574,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>168.0973209241293</v>
       </c>
       <c r="D15" t="n">
-        <v>94.5882759680828</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>104.788290858845</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
         <v>92.21242279682792</v>
@@ -23595,7 +23595,7 @@
         <v>68.58572552873486</v>
       </c>
       <c r="J15" t="n">
-        <v>41.94508221245999</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23616,7 +23616,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>25.28363501191949</v>
+        <v>25.2836350119195</v>
       </c>
       <c r="R15" t="n">
         <v>89.89106056329777</v>
@@ -23625,16 +23625,16 @@
         <v>154.9931415897222</v>
       </c>
       <c r="T15" t="n">
-        <v>149.9867123087366</v>
+        <v>196.542972585383</v>
       </c>
       <c r="U15" t="n">
-        <v>225.8822674545966</v>
+        <v>173.0254778580407</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>198.8381935643636</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
@@ -23674,28 +23674,28 @@
         <v>132.7964579761459</v>
       </c>
       <c r="J16" t="n">
-        <v>73.73656719852511</v>
+        <v>73.73656719852514</v>
       </c>
       <c r="K16" t="n">
-        <v>41.49260017923653</v>
+        <v>41.49260017923655</v>
       </c>
       <c r="L16" t="n">
-        <v>22.88836636029134</v>
+        <v>22.88836636029136</v>
       </c>
       <c r="M16" t="n">
-        <v>20.84137817734165</v>
+        <v>20.84137817734167</v>
       </c>
       <c r="N16" t="n">
-        <v>12.40892193256222</v>
+        <v>12.40892193256225</v>
       </c>
       <c r="O16" t="n">
-        <v>31.97991948089479</v>
+        <v>31.97991948089481</v>
       </c>
       <c r="P16" t="n">
-        <v>46.61886211516955</v>
+        <v>46.61886211516956</v>
       </c>
       <c r="Q16" t="n">
-        <v>88.42575430879999</v>
+        <v>88.42575430880001</v>
       </c>
       <c r="R16" t="n">
         <v>143.421937979285</v>
@@ -23732,31 +23732,31 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>312.4161021744516</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>329.0735804757059</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>354.0192561451555</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>360.7665776281696</v>
+        <v>413.6233672247255</v>
       </c>
       <c r="H17" t="n">
-        <v>286.7044540464298</v>
+        <v>269.4191615325543</v>
       </c>
       <c r="I17" t="n">
         <v>145.7319664493916</v>
       </c>
       <c r="J17" t="n">
-        <v>38.5114503410384</v>
+        <v>38.51145034103843</v>
       </c>
       <c r="K17" t="n">
-        <v>6.467652466296272</v>
+        <v>6.4676524662963</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -23774,13 +23774,13 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>40.95259142598479</v>
+        <v>40.95259142598482</v>
       </c>
       <c r="R17" t="n">
         <v>110.093793809193</v>
       </c>
       <c r="S17" t="n">
-        <v>170.7514190935376</v>
+        <v>135.1799220108573</v>
       </c>
       <c r="T17" t="n">
         <v>215.7444061178635</v>
@@ -23798,7 +23798,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>333.3811490594976</v>
       </c>
     </row>
     <row r="18">
@@ -23826,13 +23826,13 @@
         <v>136.4449748422618</v>
       </c>
       <c r="H18" t="n">
-        <v>103.5574170841747</v>
+        <v>98.94623901998821</v>
       </c>
       <c r="I18" t="n">
-        <v>68.58572552873486</v>
+        <v>15.7289359321789</v>
       </c>
       <c r="J18" t="n">
-        <v>41.94508221245999</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23853,7 +23853,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>25.2836350119195</v>
       </c>
       <c r="R18" t="n">
         <v>37.03427096674181</v>
@@ -23862,10 +23862,10 @@
         <v>102.1363519931662</v>
       </c>
       <c r="T18" t="n">
-        <v>143.6861829888271</v>
+        <v>196.542972585383</v>
       </c>
       <c r="U18" t="n">
-        <v>204.6096421898696</v>
+        <v>225.8822674545966</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -23911,28 +23911,28 @@
         <v>132.7964579761459</v>
       </c>
       <c r="J19" t="n">
-        <v>73.73656719852511</v>
+        <v>73.73656719852514</v>
       </c>
       <c r="K19" t="n">
-        <v>41.49260017923653</v>
+        <v>41.49260017923655</v>
       </c>
       <c r="L19" t="n">
-        <v>22.88836636029134</v>
+        <v>22.88836636029136</v>
       </c>
       <c r="M19" t="n">
-        <v>20.84137817734165</v>
+        <v>20.84137817734167</v>
       </c>
       <c r="N19" t="n">
-        <v>12.40892193256222</v>
+        <v>12.40892193256225</v>
       </c>
       <c r="O19" t="n">
-        <v>31.97991948089479</v>
+        <v>31.97991948089481</v>
       </c>
       <c r="P19" t="n">
-        <v>46.61886211516955</v>
+        <v>46.61886211516956</v>
       </c>
       <c r="Q19" t="n">
-        <v>88.42575430879999</v>
+        <v>88.42575430880001</v>
       </c>
       <c r="R19" t="n">
         <v>143.421937979285</v>
@@ -23966,19 +23966,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>359.3069025489935</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>300.7363964924037</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>317.3938747936579</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>342.3395504631076</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>413.6233672247255</v>
@@ -23990,10 +23990,10 @@
         <v>145.7319664493916</v>
       </c>
       <c r="J20" t="n">
-        <v>38.5114503410384</v>
+        <v>38.51145034103843</v>
       </c>
       <c r="K20" t="n">
-        <v>6.467652466296272</v>
+        <v>6.4676524662963</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -24011,13 +24011,13 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>40.95259142598479</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>110.093793809193</v>
+        <v>63.08295084208707</v>
       </c>
       <c r="S20" t="n">
-        <v>170.7514190935376</v>
+        <v>106.2149238149339</v>
       </c>
       <c r="T20" t="n">
         <v>215.7444061178635</v>
@@ -24026,7 +24026,7 @@
         <v>251.2113032846037</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>263.2157631915311</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -24045,7 +24045,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>109.6894386084732</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
@@ -24057,16 +24057,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>80.53271711478004</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>71.90847956365795</v>
+        <v>136.4449748422618</v>
       </c>
       <c r="H21" t="n">
-        <v>39.02092180557086</v>
+        <v>103.5574170841747</v>
       </c>
       <c r="I21" t="n">
-        <v>11.74198048734063</v>
+        <v>68.58572552873486</v>
       </c>
       <c r="J21" t="n">
         <v>41.94508221245999</v>
@@ -24090,7 +24090,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>25.28363501191949</v>
+        <v>25.2836350119195</v>
       </c>
       <c r="R21" t="n">
         <v>89.89106056329777</v>
@@ -24108,13 +24108,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>187.1584878823158</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>141.2364899248737</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>141.1462004987006</v>
       </c>
     </row>
     <row r="22">
@@ -24148,28 +24148,28 @@
         <v>132.7964579761459</v>
       </c>
       <c r="J22" t="n">
-        <v>73.73656719852511</v>
+        <v>73.73656719852514</v>
       </c>
       <c r="K22" t="n">
-        <v>41.49260017923653</v>
+        <v>41.49260017923655</v>
       </c>
       <c r="L22" t="n">
-        <v>22.88836636029134</v>
+        <v>22.88836636029136</v>
       </c>
       <c r="M22" t="n">
-        <v>20.84137817734165</v>
+        <v>20.84137817734167</v>
       </c>
       <c r="N22" t="n">
-        <v>12.40892193256222</v>
+        <v>12.40892193256225</v>
       </c>
       <c r="O22" t="n">
-        <v>31.97991948089479</v>
+        <v>31.97991948089481</v>
       </c>
       <c r="P22" t="n">
-        <v>46.61886211516955</v>
+        <v>46.61886211516956</v>
       </c>
       <c r="Q22" t="n">
-        <v>88.42575430879999</v>
+        <v>88.42575430880001</v>
       </c>
       <c r="R22" t="n">
         <v>143.421937979285</v>
@@ -24203,7 +24203,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>318.1973463848767</v>
+        <v>318.1973463848768</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -24218,7 +24218,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>413.6233672247255</v>
+        <v>349.0868719461217</v>
       </c>
       <c r="H23" t="n">
         <v>322.2759511291103</v>
@@ -24227,10 +24227,10 @@
         <v>145.7319664493916</v>
       </c>
       <c r="J23" t="n">
-        <v>38.5114503410384</v>
+        <v>15.08451122655144</v>
       </c>
       <c r="K23" t="n">
-        <v>6.467652466296272</v>
+        <v>6.4676524662963</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -24248,7 +24248,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>40.95259142598479</v>
+        <v>40.95259142598482</v>
       </c>
       <c r="R23" t="n">
         <v>110.093793809193</v>
@@ -24260,7 +24260,7 @@
         <v>215.7444061178635</v>
       </c>
       <c r="U23" t="n">
-        <v>186.6748080059999</v>
+        <v>251.2113032846037</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -24269,7 +24269,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>346.3041615639819</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>321.7014433774498</v>
@@ -24285,10 +24285,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>108.1720037097119</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>82.90857028603492</v>
+        <v>82.90857028603497</v>
       </c>
       <c r="E24" t="n">
         <v>157.6450804554009</v>
@@ -24297,16 +24297,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>136.4449748422618</v>
+        <v>104.8848648127871</v>
       </c>
       <c r="H24" t="n">
         <v>103.5574170841747</v>
       </c>
       <c r="I24" t="n">
-        <v>53.68706269980062</v>
+        <v>68.58572552873486</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>41.94508221245999</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24327,19 +24327,19 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>25.28363501191949</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>89.89106056329777</v>
       </c>
       <c r="S24" t="n">
-        <v>90.45664631111833</v>
+        <v>154.9931415897222</v>
       </c>
       <c r="T24" t="n">
-        <v>196.542972585383</v>
+        <v>132.0064773067793</v>
       </c>
       <c r="U24" t="n">
-        <v>225.8822674545966</v>
+        <v>161.3457721759928</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
@@ -24385,28 +24385,28 @@
         <v>132.7964579761459</v>
       </c>
       <c r="J25" t="n">
-        <v>73.73656719852511</v>
+        <v>73.73656719852514</v>
       </c>
       <c r="K25" t="n">
-        <v>41.49260017923653</v>
+        <v>41.49260017923655</v>
       </c>
       <c r="L25" t="n">
-        <v>22.88836636029134</v>
+        <v>22.88836636029136</v>
       </c>
       <c r="M25" t="n">
-        <v>20.84137817734165</v>
+        <v>20.84137817734167</v>
       </c>
       <c r="N25" t="n">
-        <v>12.40892193256222</v>
+        <v>12.40892193256225</v>
       </c>
       <c r="O25" t="n">
-        <v>31.97991948089479</v>
+        <v>31.97991948089481</v>
       </c>
       <c r="P25" t="n">
-        <v>46.61886211516955</v>
+        <v>46.61886211516956</v>
       </c>
       <c r="Q25" t="n">
-        <v>88.42575430879999</v>
+        <v>88.42575430880001</v>
       </c>
       <c r="R25" t="n">
         <v>143.421937979285</v>
@@ -24452,22 +24452,22 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>342.3395504631077</v>
       </c>
       <c r="G26" t="n">
-        <v>390.1964281102384</v>
+        <v>349.0868719461217</v>
       </c>
       <c r="H26" t="n">
-        <v>257.7394558505065</v>
+        <v>322.2759511291103</v>
       </c>
       <c r="I26" t="n">
-        <v>145.7319664493916</v>
+        <v>122.3050273349046</v>
       </c>
       <c r="J26" t="n">
-        <v>38.5114503410384</v>
+        <v>38.51145034103843</v>
       </c>
       <c r="K26" t="n">
-        <v>6.467652466296272</v>
+        <v>6.4676524662963</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -24485,7 +24485,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>40.95259142598479</v>
+        <v>40.95259142598482</v>
       </c>
       <c r="R26" t="n">
         <v>110.093793809193</v>
@@ -24503,7 +24503,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>284.7044734388091</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -24528,13 +24528,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>93.10858517679716</v>
       </c>
       <c r="F27" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>136.4449748422618</v>
+        <v>79.6012298008676</v>
       </c>
       <c r="H27" t="n">
         <v>103.5574170841747</v>
@@ -24564,25 +24564,25 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>25.28363501191949</v>
+        <v>25.2836350119195</v>
       </c>
       <c r="R27" t="n">
         <v>89.89106056329777</v>
       </c>
       <c r="S27" t="n">
-        <v>98.14939654832796</v>
+        <v>154.9931415897222</v>
       </c>
       <c r="T27" t="n">
-        <v>132.0064773067792</v>
+        <v>132.0064773067793</v>
       </c>
       <c r="U27" t="n">
-        <v>161.3457721759928</v>
+        <v>225.8822674545966</v>
       </c>
       <c r="V27" t="n">
-        <v>168.2640918708214</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>187.1584878823158</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
@@ -24622,28 +24622,28 @@
         <v>132.7964579761459</v>
       </c>
       <c r="J28" t="n">
-        <v>73.73656719852511</v>
+        <v>73.73656719852514</v>
       </c>
       <c r="K28" t="n">
-        <v>41.49260017923653</v>
+        <v>41.49260017923655</v>
       </c>
       <c r="L28" t="n">
-        <v>22.88836636029134</v>
+        <v>22.88836636029136</v>
       </c>
       <c r="M28" t="n">
-        <v>20.84137817734165</v>
+        <v>20.84137817734167</v>
       </c>
       <c r="N28" t="n">
-        <v>12.40892193256222</v>
+        <v>12.40892193256225</v>
       </c>
       <c r="O28" t="n">
-        <v>31.97991948089479</v>
+        <v>31.97991948089481</v>
       </c>
       <c r="P28" t="n">
-        <v>46.61886211516955</v>
+        <v>46.61886211516956</v>
       </c>
       <c r="Q28" t="n">
-        <v>88.42575430879999</v>
+        <v>88.42575430880001</v>
       </c>
       <c r="R28" t="n">
         <v>143.421937979285</v>
@@ -24677,7 +24677,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>318.1973463848768</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -24698,13 +24698,13 @@
         <v>322.2759511291103</v>
       </c>
       <c r="I29" t="n">
-        <v>145.7319664493916</v>
+        <v>96.27998239733921</v>
       </c>
       <c r="J29" t="n">
-        <v>38.5114503410384</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>6.467652466296272</v>
+        <v>6.4676524662963</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -24722,13 +24722,13 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>40.95259142598479</v>
+        <v>40.95259142598482</v>
       </c>
       <c r="R29" t="n">
-        <v>86.66685469470592</v>
+        <v>110.093793809193</v>
       </c>
       <c r="S29" t="n">
-        <v>170.7514190935376</v>
+        <v>106.2149238149339</v>
       </c>
       <c r="T29" t="n">
         <v>215.7444061178635</v>
@@ -24740,13 +24740,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>284.7044734388091</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>305.1946053998652</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>321.7014433774498</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24756,7 +24756,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>101.9966883712636</v>
       </c>
       <c r="C30" t="n">
         <v>172.7084989883157</v>
@@ -24780,7 +24780,7 @@
         <v>68.58572552873486</v>
       </c>
       <c r="J30" t="n">
-        <v>41.94508221245999</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24801,10 +24801,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>25.28363501191949</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>89.89106056329777</v>
+        <v>35.7395374676793</v>
       </c>
       <c r="S30" t="n">
         <v>154.9931415897222</v>
@@ -24813,16 +24813,16 @@
         <v>196.542972585383</v>
       </c>
       <c r="U30" t="n">
-        <v>161.3457721759928</v>
+        <v>225.8822674545966</v>
       </c>
       <c r="V30" t="n">
-        <v>168.2640918708214</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>187.1584878823158</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>148.9292401620833</v>
+        <v>141.2364899248737</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -24859,28 +24859,28 @@
         <v>132.7964579761459</v>
       </c>
       <c r="J31" t="n">
-        <v>73.73656719852511</v>
+        <v>73.73656719852514</v>
       </c>
       <c r="K31" t="n">
-        <v>41.49260017923653</v>
+        <v>41.49260017923655</v>
       </c>
       <c r="L31" t="n">
-        <v>22.88836636029134</v>
+        <v>22.88836636029136</v>
       </c>
       <c r="M31" t="n">
-        <v>20.84137817734165</v>
+        <v>20.84137817734167</v>
       </c>
       <c r="N31" t="n">
-        <v>12.40892193256222</v>
+        <v>12.40892193256225</v>
       </c>
       <c r="O31" t="n">
-        <v>31.97991948089479</v>
+        <v>31.97991948089481</v>
       </c>
       <c r="P31" t="n">
-        <v>46.61886211516955</v>
+        <v>46.61886211516956</v>
       </c>
       <c r="Q31" t="n">
-        <v>88.42575430879999</v>
+        <v>88.42575430880001</v>
       </c>
       <c r="R31" t="n">
         <v>143.421937979285</v>
@@ -24914,13 +24914,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>359.3069025489936</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>300.7363964924037</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>290.1465463420792</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -24938,10 +24938,10 @@
         <v>145.7319664493916</v>
       </c>
       <c r="J32" t="n">
-        <v>38.5114503410384</v>
+        <v>38.51145034103843</v>
       </c>
       <c r="K32" t="n">
-        <v>6.467652466296272</v>
+        <v>6.4676524662963</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -24959,31 +24959,31 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>40.95259142598479</v>
+        <v>40.95259142598482</v>
       </c>
       <c r="R32" t="n">
-        <v>45.55729853058914</v>
+        <v>110.093793809193</v>
       </c>
       <c r="S32" t="n">
-        <v>106.2149238149338</v>
+        <v>170.7514190935376</v>
       </c>
       <c r="T32" t="n">
         <v>215.7444061178635</v>
       </c>
       <c r="U32" t="n">
-        <v>186.6748080059999</v>
+        <v>251.2113032846037</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>325.8140296029259</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>321.7014433774498</v>
       </c>
     </row>
     <row r="33">
@@ -25008,7 +25008,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>79.60122980086756</v>
+        <v>136.4449748422618</v>
       </c>
       <c r="H33" t="n">
         <v>103.5574170841747</v>
@@ -25038,25 +25038,25 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>25.28363501191949</v>
+        <v>25.2836350119195</v>
       </c>
       <c r="R33" t="n">
-        <v>25.35456528469393</v>
+        <v>89.89106056329777</v>
       </c>
       <c r="S33" t="n">
         <v>154.9931415897222</v>
       </c>
       <c r="T33" t="n">
-        <v>196.542972585383</v>
+        <v>132.0064773067793</v>
       </c>
       <c r="U33" t="n">
-        <v>225.8822674545966</v>
+        <v>161.3457721759928</v>
       </c>
       <c r="V33" t="n">
-        <v>168.2640918708214</v>
+        <v>168.2640918708215</v>
       </c>
       <c r="W33" t="n">
-        <v>187.1584878823158</v>
+        <v>194.8512381195254</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
@@ -25096,28 +25096,28 @@
         <v>132.7964579761459</v>
       </c>
       <c r="J34" t="n">
-        <v>73.73656719852511</v>
+        <v>73.73656719852514</v>
       </c>
       <c r="K34" t="n">
-        <v>41.49260017923653</v>
+        <v>41.49260017923655</v>
       </c>
       <c r="L34" t="n">
-        <v>22.88836636029134</v>
+        <v>22.88836636029136</v>
       </c>
       <c r="M34" t="n">
-        <v>20.84137817734165</v>
+        <v>20.84137817734167</v>
       </c>
       <c r="N34" t="n">
-        <v>12.40892193256222</v>
+        <v>12.40892193256225</v>
       </c>
       <c r="O34" t="n">
-        <v>31.97991948089479</v>
+        <v>31.97991948089481</v>
       </c>
       <c r="P34" t="n">
-        <v>46.61886211516955</v>
+        <v>46.61886211516956</v>
       </c>
       <c r="Q34" t="n">
-        <v>88.42575430879999</v>
+        <v>88.42575430880001</v>
       </c>
       <c r="R34" t="n">
         <v>143.421937979285</v>
@@ -25151,7 +25151,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>329.8770520669246</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -25163,10 +25163,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>354.0192561451555</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>378.051870142045</v>
+        <v>413.6233672247255</v>
       </c>
       <c r="H35" t="n">
         <v>322.2759511291103</v>
@@ -25175,10 +25175,10 @@
         <v>145.7319664493916</v>
       </c>
       <c r="J35" t="n">
-        <v>38.5114503410384</v>
+        <v>38.51145034103843</v>
       </c>
       <c r="K35" t="n">
-        <v>6.467652466296272</v>
+        <v>6.4676524662963</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -25196,7 +25196,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>40.95259142598479</v>
+        <v>5.381094343304454</v>
       </c>
       <c r="R35" t="n">
         <v>110.093793809193</v>
@@ -25205,7 +25205,7 @@
         <v>170.7514190935376</v>
       </c>
       <c r="T35" t="n">
-        <v>162.8876165213076</v>
+        <v>215.7444061178635</v>
       </c>
       <c r="U35" t="n">
         <v>251.2113032846037</v>
@@ -25214,13 +25214,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>296.3841791208571</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>316.8743110819131</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>333.3811490594976</v>
       </c>
     </row>
     <row r="36">
@@ -25230,19 +25230,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>113.6763940533114</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
         <v>119.8517093917598</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>94.5882759680828</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>104.788290858845</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>98.51295211673741</v>
       </c>
       <c r="G36" t="n">
         <v>136.4449748422618</v>
@@ -25275,7 +25275,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>25.28363501191949</v>
+        <v>25.2836350119195</v>
       </c>
       <c r="R36" t="n">
         <v>89.89106056329777</v>
@@ -25287,7 +25287,7 @@
         <v>196.542972585383</v>
       </c>
       <c r="U36" t="n">
-        <v>179.3260071779501</v>
+        <v>225.8822674545966</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
@@ -25299,7 +25299,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>152.8259061807484</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25333,28 +25333,28 @@
         <v>132.7964579761459</v>
       </c>
       <c r="J37" t="n">
-        <v>73.73656719852511</v>
+        <v>73.73656719852514</v>
       </c>
       <c r="K37" t="n">
-        <v>41.49260017923653</v>
+        <v>41.49260017923655</v>
       </c>
       <c r="L37" t="n">
-        <v>22.88836636029134</v>
+        <v>22.88836636029136</v>
       </c>
       <c r="M37" t="n">
-        <v>20.84137817734165</v>
+        <v>20.84137817734167</v>
       </c>
       <c r="N37" t="n">
-        <v>12.40892193256222</v>
+        <v>12.40892193256225</v>
       </c>
       <c r="O37" t="n">
-        <v>31.97991948089479</v>
+        <v>31.97991948089481</v>
       </c>
       <c r="P37" t="n">
-        <v>46.61886211516955</v>
+        <v>46.61886211516956</v>
       </c>
       <c r="Q37" t="n">
-        <v>88.42575430879999</v>
+        <v>88.42575430880001</v>
       </c>
       <c r="R37" t="n">
         <v>143.421937979285</v>
@@ -25391,13 +25391,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>329.7013946883272</v>
       </c>
       <c r="D38" t="n">
         <v>301.826252024127</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>329.0735804757059</v>
       </c>
       <c r="F38" t="n">
         <v>354.0192561451555</v>
@@ -25412,10 +25412,10 @@
         <v>145.7319664493916</v>
       </c>
       <c r="J38" t="n">
-        <v>38.5114503410384</v>
+        <v>38.51145034103843</v>
       </c>
       <c r="K38" t="n">
-        <v>6.467652466296272</v>
+        <v>6.4676524662963</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -25433,7 +25433,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>5.381094343304312</v>
+        <v>40.95259142598482</v>
       </c>
       <c r="R38" t="n">
         <v>110.093793809193</v>
@@ -25451,7 +25451,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>296.3841791208571</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -25467,16 +25467,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>119.9769233732209</v>
       </c>
       <c r="C39" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>94.5882759680828</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>104.788290858845</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
@@ -25485,7 +25485,7 @@
         <v>136.4449748422618</v>
       </c>
       <c r="H39" t="n">
-        <v>57.00115680752823</v>
+        <v>103.5574170841747</v>
       </c>
       <c r="I39" t="n">
         <v>68.58572552873486</v>
@@ -25512,7 +25512,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>25.28363501191949</v>
+        <v>25.2836350119195</v>
       </c>
       <c r="R39" t="n">
         <v>89.89106056329777</v>
@@ -25521,13 +25521,13 @@
         <v>154.9931415897222</v>
       </c>
       <c r="T39" t="n">
-        <v>143.6861829888271</v>
+        <v>196.542972585383</v>
       </c>
       <c r="U39" t="n">
-        <v>225.8822674545966</v>
+        <v>173.0254778580407</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>179.9437975528693</v>
       </c>
       <c r="W39" t="n">
         <v>251.6949831609196</v>
@@ -25536,7 +25536,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>152.8259061807484</v>
       </c>
     </row>
     <row r="40">
@@ -25570,28 +25570,28 @@
         <v>132.7964579761459</v>
       </c>
       <c r="J40" t="n">
-        <v>73.73656719852511</v>
+        <v>73.73656719852514</v>
       </c>
       <c r="K40" t="n">
-        <v>41.49260017923653</v>
+        <v>41.49260017923655</v>
       </c>
       <c r="L40" t="n">
-        <v>22.88836636029134</v>
+        <v>22.88836636029136</v>
       </c>
       <c r="M40" t="n">
-        <v>20.84137817734165</v>
+        <v>20.84137817734167</v>
       </c>
       <c r="N40" t="n">
-        <v>12.40892193256222</v>
+        <v>12.40892193256225</v>
       </c>
       <c r="O40" t="n">
-        <v>31.97991948089479</v>
+        <v>31.97991948089481</v>
       </c>
       <c r="P40" t="n">
-        <v>46.61886211516955</v>
+        <v>46.61886211516956</v>
       </c>
       <c r="Q40" t="n">
-        <v>88.42575430879999</v>
+        <v>88.42575430880001</v>
       </c>
       <c r="R40" t="n">
         <v>143.421937979285</v>
@@ -25634,7 +25634,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>329.0735804757059</v>
       </c>
       <c r="F41" t="n">
         <v>354.0192561451555</v>
@@ -25649,10 +25649,10 @@
         <v>145.7319664493916</v>
       </c>
       <c r="J41" t="n">
-        <v>38.5114503410384</v>
+        <v>38.51145034103843</v>
       </c>
       <c r="K41" t="n">
-        <v>6.467652466296272</v>
+        <v>6.4676524662963</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -25670,10 +25670,10 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>5.381094343304312</v>
+        <v>40.95259142598482</v>
       </c>
       <c r="R41" t="n">
-        <v>57.23700421263702</v>
+        <v>110.093793809193</v>
       </c>
       <c r="S41" t="n">
         <v>170.7514190935376</v>
@@ -25694,7 +25694,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>350.6664415733732</v>
       </c>
     </row>
     <row r="42">
@@ -25710,13 +25710,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>94.5882759680828</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>111.0888201787545</v>
       </c>
       <c r="F42" t="n">
-        <v>98.51295211673741</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
         <v>136.4449748422618</v>
@@ -25749,7 +25749,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>25.28363501191949</v>
+        <v>25.2836350119195</v>
       </c>
       <c r="R42" t="n">
         <v>89.89106056329777</v>
@@ -25761,7 +25761,7 @@
         <v>196.542972585383</v>
       </c>
       <c r="U42" t="n">
-        <v>173.0254778580407</v>
+        <v>225.8822674545966</v>
       </c>
       <c r="V42" t="n">
         <v>179.9437975528693</v>
@@ -25807,28 +25807,28 @@
         <v>132.7964579761459</v>
       </c>
       <c r="J43" t="n">
-        <v>73.73656719852511</v>
+        <v>73.73656719852514</v>
       </c>
       <c r="K43" t="n">
-        <v>41.49260017923653</v>
+        <v>41.49260017923655</v>
       </c>
       <c r="L43" t="n">
-        <v>22.88836636029134</v>
+        <v>22.88836636029136</v>
       </c>
       <c r="M43" t="n">
-        <v>20.84137817734165</v>
+        <v>20.84137817734167</v>
       </c>
       <c r="N43" t="n">
-        <v>12.40892193256222</v>
+        <v>12.40892193256225</v>
       </c>
       <c r="O43" t="n">
-        <v>31.97991948089479</v>
+        <v>31.97991948089481</v>
       </c>
       <c r="P43" t="n">
-        <v>46.61886211516955</v>
+        <v>46.61886211516956</v>
       </c>
       <c r="Q43" t="n">
-        <v>88.42575430879999</v>
+        <v>88.42575430880001</v>
       </c>
       <c r="R43" t="n">
         <v>143.421937979285</v>
@@ -25862,7 +25862,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>341.5567577489725</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -25871,7 +25871,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>340.7532861577537</v>
       </c>
       <c r="F44" t="n">
         <v>365.6989618272033</v>
@@ -25886,10 +25886,10 @@
         <v>145.7319664493916</v>
       </c>
       <c r="J44" t="n">
-        <v>38.5114503410384</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>6.467652466296272</v>
+        <v>6.4676524662963</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -25907,10 +25907,10 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>4.683815914086054</v>
+        <v>40.95259142598482</v>
       </c>
       <c r="R44" t="n">
-        <v>68.91670989468484</v>
+        <v>71.15938472382453</v>
       </c>
       <c r="S44" t="n">
         <v>170.7514190935376</v>
@@ -25947,7 +25947,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>106.2679816501306</v>
       </c>
       <c r="E45" t="n">
         <v>157.6450804554009</v>
@@ -25998,13 +25998,13 @@
         <v>196.542972585383</v>
       </c>
       <c r="U45" t="n">
-        <v>214.8971269546174</v>
+        <v>184.7051835400885</v>
       </c>
       <c r="V45" t="n">
-        <v>191.6235032349171</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>210.5178992464115</v>
+        <v>240.7098426609404</v>
       </c>
       <c r="X45" t="n">
         <v>205.7729852034775</v>
@@ -26044,28 +26044,28 @@
         <v>132.7964579761459</v>
       </c>
       <c r="J46" t="n">
-        <v>73.73656719852511</v>
+        <v>73.73656719852514</v>
       </c>
       <c r="K46" t="n">
-        <v>41.49260017923653</v>
+        <v>41.49260017923655</v>
       </c>
       <c r="L46" t="n">
-        <v>22.88836636029134</v>
+        <v>22.88836636029136</v>
       </c>
       <c r="M46" t="n">
-        <v>20.84137817734165</v>
+        <v>20.84137817734167</v>
       </c>
       <c r="N46" t="n">
-        <v>12.40892193256222</v>
+        <v>12.40892193256225</v>
       </c>
       <c r="O46" t="n">
-        <v>31.97991948089479</v>
+        <v>31.97991948089481</v>
       </c>
       <c r="P46" t="n">
-        <v>46.61886211516955</v>
+        <v>46.61886211516956</v>
       </c>
       <c r="Q46" t="n">
-        <v>88.42575430879999</v>
+        <v>88.42575430880001</v>
       </c>
       <c r="R46" t="n">
         <v>143.421937979285</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>344429.212181854</v>
+        <v>344429.2121818541</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>344429.212181854</v>
+        <v>344429.2121818541</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>349671.1689289954</v>
+        <v>349671.1689289951</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>349671.1689289954</v>
+        <v>349671.1689289951</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>349671.1689289953</v>
+        <v>349671.1689289951</v>
       </c>
     </row>
     <row r="12">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>67771.96782895472</v>
+        <v>67771.96782895469</v>
       </c>
       <c r="C2" t="n">
         <v>67793.42430342414</v>
@@ -26320,7 +26320,7 @@
         <v>67793.42430342414</v>
       </c>
       <c r="E2" t="n">
-        <v>86107.30304546341</v>
+        <v>86107.3030454634</v>
       </c>
       <c r="F2" t="n">
         <v>86107.3030454634</v>
@@ -26329,31 +26329,31 @@
         <v>86107.3030454634</v>
       </c>
       <c r="H2" t="n">
-        <v>87417.79223224877</v>
+        <v>87417.79223224871</v>
       </c>
       <c r="I2" t="n">
-        <v>87417.79223224877</v>
+        <v>87417.7922322487</v>
       </c>
       <c r="J2" t="n">
-        <v>87417.79223224877</v>
+        <v>87417.79223224871</v>
       </c>
       <c r="K2" t="n">
-        <v>87417.79223224877</v>
+        <v>87417.79223224871</v>
       </c>
       <c r="L2" t="n">
-        <v>87417.79223224877</v>
+        <v>87417.79223224871</v>
       </c>
       <c r="M2" t="n">
-        <v>86107.30304546341</v>
+        <v>86107.30304546338</v>
       </c>
       <c r="N2" t="n">
-        <v>86107.3030454634</v>
+        <v>86107.30304546338</v>
       </c>
       <c r="O2" t="n">
         <v>86107.30304546338</v>
       </c>
       <c r="P2" t="n">
-        <v>84477.89265072221</v>
+        <v>84477.89265072225</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>89233.09980835686</v>
+        <v>89233.09980835681</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>10261.49401983107</v>
+        <v>10261.49401983109</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26424,40 +26424,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>36.9621389590613</v>
+        <v>36.96213895906128</v>
       </c>
       <c r="F4" t="n">
-        <v>36.9621389590613</v>
+        <v>36.96213895906128</v>
       </c>
       <c r="G4" t="n">
-        <v>36.9621389590613</v>
+        <v>36.96213895906128</v>
       </c>
       <c r="H4" t="n">
-        <v>42.69255649714921</v>
+        <v>42.69255649714917</v>
       </c>
       <c r="I4" t="n">
-        <v>42.69255649714921</v>
+        <v>42.69255649714917</v>
       </c>
       <c r="J4" t="n">
-        <v>42.69255649714921</v>
+        <v>42.69255649714917</v>
       </c>
       <c r="K4" t="n">
-        <v>42.69255649714921</v>
+        <v>42.69255649714917</v>
       </c>
       <c r="L4" t="n">
-        <v>42.6925564971492</v>
+        <v>42.69255649714917</v>
       </c>
       <c r="M4" t="n">
-        <v>36.9621389590613</v>
+        <v>36.96213895906129</v>
       </c>
       <c r="N4" t="n">
-        <v>36.96213895906129</v>
+        <v>36.96213895906128</v>
       </c>
       <c r="O4" t="n">
-        <v>36.9621389590613</v>
+        <v>36.96213895906128</v>
       </c>
       <c r="P4" t="n">
-        <v>29.83716456253692</v>
+        <v>29.8371645625369</v>
       </c>
     </row>
     <row r="5">
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-287279.0556112126</v>
+        <v>-287279.0556112127</v>
       </c>
       <c r="C6" t="n">
         <v>26927.52040802108</v>
@@ -26528,7 +26528,7 @@
         <v>27052.08693762036</v>
       </c>
       <c r="E6" t="n">
-        <v>-15483.25695164151</v>
+        <v>-15483.25695164148</v>
       </c>
       <c r="F6" t="n">
         <v>73749.84285671533</v>
@@ -26537,31 +26537,31 @@
         <v>73749.84285671533</v>
       </c>
       <c r="H6" t="n">
-        <v>71193.18581012647</v>
+        <v>71193.18581012641</v>
       </c>
       <c r="I6" t="n">
-        <v>74344.4755204941</v>
+        <v>74344.47552049403</v>
       </c>
       <c r="J6" t="n">
-        <v>74344.4755204941</v>
+        <v>74344.47552049404</v>
       </c>
       <c r="K6" t="n">
-        <v>74344.4755204941</v>
+        <v>74344.47552049404</v>
       </c>
       <c r="L6" t="n">
-        <v>74344.4755204941</v>
+        <v>74344.47552049404</v>
       </c>
       <c r="M6" t="n">
-        <v>63488.34883688428</v>
+        <v>63488.34883688424</v>
       </c>
       <c r="N6" t="n">
-        <v>73749.84285671533</v>
+        <v>73749.84285671532</v>
       </c>
       <c r="O6" t="n">
         <v>73749.84285671532</v>
       </c>
       <c r="P6" t="n">
-        <v>72837.68354183917</v>
+        <v>72837.68354183921</v>
       </c>
     </row>
   </sheetData>
@@ -26744,40 +26744,40 @@
         <v>326.3182277891643</v>
       </c>
       <c r="E3" t="n">
-        <v>417.7433597393765</v>
+        <v>417.7433597393764</v>
       </c>
       <c r="F3" t="n">
-        <v>417.7433597393765</v>
+        <v>417.7433597393764</v>
       </c>
       <c r="G3" t="n">
-        <v>417.7433597393765</v>
+        <v>417.7433597393764</v>
       </c>
       <c r="H3" t="n">
-        <v>417.7433597393765</v>
+        <v>417.7433597393764</v>
       </c>
       <c r="I3" t="n">
-        <v>417.7433597393765</v>
+        <v>417.7433597393764</v>
       </c>
       <c r="J3" t="n">
-        <v>417.7433597393765</v>
+        <v>417.7433597393764</v>
       </c>
       <c r="K3" t="n">
-        <v>417.7433597393765</v>
+        <v>417.7433597393764</v>
       </c>
       <c r="L3" t="n">
-        <v>417.7433597393765</v>
+        <v>417.7433597393764</v>
       </c>
       <c r="M3" t="n">
-        <v>417.7433597393765</v>
+        <v>417.7433597393764</v>
       </c>
       <c r="N3" t="n">
-        <v>417.7433597393765</v>
+        <v>417.7433597393764</v>
       </c>
       <c r="O3" t="n">
-        <v>417.7433597393765</v>
+        <v>417.7433597393764</v>
       </c>
       <c r="P3" t="n">
-        <v>417.7433597393765</v>
+        <v>417.7433597393764</v>
       </c>
     </row>
     <row r="4">
@@ -26805,19 +26805,19 @@
         <v>52.85678959655596</v>
       </c>
       <c r="H4" t="n">
-        <v>64.53649527860384</v>
+        <v>64.53649527860378</v>
       </c>
       <c r="I4" t="n">
-        <v>64.53649527860384</v>
+        <v>64.53649527860378</v>
       </c>
       <c r="J4" t="n">
-        <v>64.53649527860384</v>
+        <v>64.53649527860378</v>
       </c>
       <c r="K4" t="n">
-        <v>64.53649527860384</v>
+        <v>64.53649527860378</v>
       </c>
       <c r="L4" t="n">
-        <v>64.53649527860384</v>
+        <v>64.53649527860378</v>
       </c>
       <c r="M4" t="n">
         <v>52.85678959655596</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>91.42513195021223</v>
+        <v>91.42513195021218</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>41.17708391450807</v>
+        <v>41.17708391450813</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31057,7 +31057,7 @@
         <v>206.9301560946275</v>
       </c>
       <c r="M2" t="n">
-        <v>230.2496698278014</v>
+        <v>230.2496698278013</v>
       </c>
       <c r="N2" t="n">
         <v>229.4130635965909</v>
@@ -31206,19 +31206,19 @@
         <v>17.68865863964326</v>
       </c>
       <c r="J4" t="n">
-        <v>41.58545896024957</v>
+        <v>41.58545896024956</v>
       </c>
       <c r="K4" t="n">
         <v>68.33768361990347</v>
       </c>
       <c r="L4" t="n">
-        <v>87.44870719248058</v>
+        <v>87.4487071924806</v>
       </c>
       <c r="M4" t="n">
         <v>92.20240052096993</v>
       </c>
       <c r="N4" t="n">
-        <v>90.01003351907953</v>
+        <v>90.01003351907951</v>
       </c>
       <c r="O4" t="n">
         <v>83.13883450095931</v>
@@ -31282,7 +31282,7 @@
         <v>13.43480020239508</v>
       </c>
       <c r="I5" t="n">
-        <v>50.57440593705229</v>
+        <v>50.5744059370523</v>
       </c>
       <c r="J5" t="n">
         <v>111.3401072796808</v>
@@ -31309,7 +31309,7 @@
         <v>141.6631056127321</v>
       </c>
       <c r="R5" t="n">
-        <v>82.40437136225565</v>
+        <v>82.40437136225566</v>
       </c>
       <c r="S5" t="n">
         <v>29.89337332963048</v>
@@ -31355,7 +31355,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.7018920371314099</v>
+        <v>0.70189203713141</v>
       </c>
       <c r="H6" t="n">
         <v>6.778799411242828</v>
@@ -31388,7 +31388,7 @@
         <v>89.59590284505508</v>
       </c>
       <c r="R6" t="n">
-        <v>43.57887577908878</v>
+        <v>43.57887577908879</v>
       </c>
       <c r="S6" t="n">
         <v>13.03733674233122</v>
@@ -31437,7 +31437,7 @@
         <v>0.5884427058493126</v>
       </c>
       <c r="H7" t="n">
-        <v>5.231790602914801</v>
+        <v>5.231790602914802</v>
       </c>
       <c r="I7" t="n">
         <v>17.69607700863206</v>
@@ -31449,10 +31449,10 @@
         <v>68.36634346140194</v>
       </c>
       <c r="L7" t="n">
-        <v>87.48538192236053</v>
+        <v>87.48538192236055</v>
       </c>
       <c r="M7" t="n">
-        <v>92.24106888145177</v>
+        <v>92.24106888145178</v>
       </c>
       <c r="N7" t="n">
         <v>90.04778243237713</v>
@@ -31762,10 +31762,10 @@
         <v>142.5344541856479</v>
       </c>
       <c r="K11" t="n">
-        <v>213.6221985786843</v>
+        <v>213.6221985786842</v>
       </c>
       <c r="L11" t="n">
-        <v>265.0172271038057</v>
+        <v>265.0172271038056</v>
       </c>
       <c r="M11" t="n">
         <v>283.2030228238287</v>
@@ -31777,22 +31777,22 @@
         <v>282.9550010182427</v>
       </c>
       <c r="P11" t="n">
-        <v>241.4955469737569</v>
+        <v>241.4955469737568</v>
       </c>
       <c r="Q11" t="n">
         <v>181.3530984484647</v>
       </c>
       <c r="R11" t="n">
-        <v>105.4917440049392</v>
+        <v>105.4917440049391</v>
       </c>
       <c r="S11" t="n">
         <v>38.26865049270771</v>
       </c>
       <c r="T11" t="n">
-        <v>7.35144344626782</v>
+        <v>7.351443446267819</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1343496232327642</v>
+        <v>0.1343496232327641</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8985423209488476</v>
+        <v>0.8985423209488475</v>
       </c>
       <c r="H12" t="n">
-        <v>8.678027152321766</v>
+        <v>8.678027152321764</v>
       </c>
       <c r="I12" t="n">
         <v>30.93665447126515</v>
@@ -31841,7 +31841,7 @@
         <v>84.8925444542067</v>
       </c>
       <c r="K12" t="n">
-        <v>145.0948799577795</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
         <v>191.4111693764301</v>
@@ -31850,10 +31850,10 @@
         <v>194.9908235185743</v>
       </c>
       <c r="N12" t="n">
-        <v>137.2016666980008</v>
+        <v>184.1985016798893</v>
       </c>
       <c r="O12" t="n">
-        <v>195.4530340410004</v>
+        <v>155.7096400425324</v>
       </c>
       <c r="P12" t="n">
         <v>171.5821735503111</v>
@@ -31862,16 +31862,16 @@
         <v>114.698139074102</v>
       </c>
       <c r="R12" t="n">
-        <v>55.78844340066619</v>
+        <v>55.78844340066618</v>
       </c>
       <c r="S12" t="n">
         <v>16.69002951411564</v>
       </c>
       <c r="T12" t="n">
-        <v>3.621756109438556</v>
+        <v>3.621756109438555</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05911462637821368</v>
+        <v>0.05911462637821367</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,19 +31908,19 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.7533076978906789</v>
+        <v>0.7533076978906788</v>
       </c>
       <c r="H13" t="n">
-        <v>6.697590259428041</v>
+        <v>6.69759025942804</v>
       </c>
       <c r="I13" t="n">
         <v>22.65401695111242</v>
       </c>
       <c r="J13" t="n">
-        <v>53.258854240871</v>
+        <v>53.25885424087098</v>
       </c>
       <c r="K13" t="n">
-        <v>87.52065799129885</v>
+        <v>87.52065799129883</v>
       </c>
       <c r="L13" t="n">
         <v>111.9963099209469</v>
@@ -31929,25 +31929,25 @@
         <v>118.0844057702634</v>
       </c>
       <c r="N13" t="n">
-        <v>115.276622532671</v>
+        <v>115.2766225326709</v>
       </c>
       <c r="O13" t="n">
         <v>106.476618970948</v>
       </c>
       <c r="P13" t="n">
-        <v>91.10914193397807</v>
+        <v>91.10914193397805</v>
       </c>
       <c r="Q13" t="n">
-        <v>63.07924732064585</v>
+        <v>63.07924732064584</v>
       </c>
       <c r="R13" t="n">
-        <v>33.87145339788452</v>
+        <v>33.87145339788451</v>
       </c>
       <c r="S13" t="n">
-        <v>13.12809869869483</v>
+        <v>13.12809869869482</v>
       </c>
       <c r="T13" t="n">
-        <v>3.2186783455329</v>
+        <v>3.218678345532899</v>
       </c>
       <c r="U13" t="n">
         <v>0.04108951079403707</v>
@@ -31999,10 +31999,10 @@
         <v>142.5344541856479</v>
       </c>
       <c r="K14" t="n">
-        <v>213.6221985786843</v>
+        <v>213.6221985786842</v>
       </c>
       <c r="L14" t="n">
-        <v>265.0172271038057</v>
+        <v>265.0172271038056</v>
       </c>
       <c r="M14" t="n">
         <v>283.2030228238287</v>
@@ -32014,22 +32014,22 @@
         <v>282.9550010182427</v>
       </c>
       <c r="P14" t="n">
-        <v>241.4955469737569</v>
+        <v>241.4955469737568</v>
       </c>
       <c r="Q14" t="n">
         <v>181.3530984484647</v>
       </c>
       <c r="R14" t="n">
-        <v>105.4917440049392</v>
+        <v>105.4917440049391</v>
       </c>
       <c r="S14" t="n">
         <v>38.26865049270771</v>
       </c>
       <c r="T14" t="n">
-        <v>7.35144344626782</v>
+        <v>7.351443446267819</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1343496232327642</v>
+        <v>0.1343496232327641</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,10 +32066,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8985423209488476</v>
+        <v>0.8985423209488475</v>
       </c>
       <c r="H15" t="n">
-        <v>8.678027152321766</v>
+        <v>8.678027152321764</v>
       </c>
       <c r="I15" t="n">
         <v>30.93665447126515</v>
@@ -32078,19 +32078,19 @@
         <v>84.8925444542067</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>145.0948799577795</v>
       </c>
       <c r="L15" t="n">
         <v>191.4111693764301</v>
       </c>
       <c r="M15" t="n">
-        <v>155.2474295201063</v>
+        <v>194.9908235185743</v>
       </c>
       <c r="N15" t="n">
         <v>184.1985016798893</v>
       </c>
       <c r="O15" t="n">
-        <v>195.4530340410004</v>
+        <v>148.456199059112</v>
       </c>
       <c r="P15" t="n">
         <v>171.5821735503111</v>
@@ -32099,16 +32099,16 @@
         <v>114.698139074102</v>
       </c>
       <c r="R15" t="n">
-        <v>55.78844340066619</v>
+        <v>55.78844340066618</v>
       </c>
       <c r="S15" t="n">
         <v>16.69002951411564</v>
       </c>
       <c r="T15" t="n">
-        <v>3.621756109438556</v>
+        <v>3.621756109438555</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05911462637821368</v>
+        <v>0.05911462637821367</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,19 +32145,19 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.7533076978906789</v>
+        <v>0.7533076978906788</v>
       </c>
       <c r="H16" t="n">
-        <v>6.697590259428041</v>
+        <v>6.69759025942804</v>
       </c>
       <c r="I16" t="n">
         <v>22.65401695111242</v>
       </c>
       <c r="J16" t="n">
-        <v>53.258854240871</v>
+        <v>53.25885424087098</v>
       </c>
       <c r="K16" t="n">
-        <v>87.52065799129885</v>
+        <v>87.52065799129883</v>
       </c>
       <c r="L16" t="n">
         <v>111.9963099209469</v>
@@ -32166,25 +32166,25 @@
         <v>118.0844057702634</v>
       </c>
       <c r="N16" t="n">
-        <v>115.276622532671</v>
+        <v>115.2766225326709</v>
       </c>
       <c r="O16" t="n">
         <v>106.476618970948</v>
       </c>
       <c r="P16" t="n">
-        <v>91.10914193397807</v>
+        <v>91.10914193397805</v>
       </c>
       <c r="Q16" t="n">
-        <v>63.07924732064585</v>
+        <v>63.07924732064584</v>
       </c>
       <c r="R16" t="n">
-        <v>33.87145339788452</v>
+        <v>33.87145339788451</v>
       </c>
       <c r="S16" t="n">
-        <v>13.12809869869483</v>
+        <v>13.12809869869482</v>
       </c>
       <c r="T16" t="n">
-        <v>3.2186783455329</v>
+        <v>3.218678345532899</v>
       </c>
       <c r="U16" t="n">
         <v>0.04108951079403707</v>
@@ -32236,10 +32236,10 @@
         <v>142.5344541856479</v>
       </c>
       <c r="K17" t="n">
-        <v>213.6221985786843</v>
+        <v>213.6221985786842</v>
       </c>
       <c r="L17" t="n">
-        <v>265.0172271038057</v>
+        <v>265.0172271038056</v>
       </c>
       <c r="M17" t="n">
         <v>283.2030228238287</v>
@@ -32251,22 +32251,22 @@
         <v>282.9550010182427</v>
       </c>
       <c r="P17" t="n">
-        <v>241.4955469737569</v>
+        <v>241.4955469737568</v>
       </c>
       <c r="Q17" t="n">
         <v>181.3530984484647</v>
       </c>
       <c r="R17" t="n">
-        <v>105.4917440049392</v>
+        <v>105.4917440049391</v>
       </c>
       <c r="S17" t="n">
         <v>38.26865049270771</v>
       </c>
       <c r="T17" t="n">
-        <v>7.35144344626782</v>
+        <v>7.351443446267819</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1343496232327642</v>
+        <v>0.1343496232327641</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,10 +32303,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8985423209488476</v>
+        <v>0.8985423209488475</v>
       </c>
       <c r="H18" t="n">
-        <v>8.678027152321766</v>
+        <v>8.678027152321764</v>
       </c>
       <c r="I18" t="n">
         <v>30.93665447126515</v>
@@ -32315,37 +32315,37 @@
         <v>84.8925444542067</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>145.0948799577795</v>
       </c>
       <c r="L18" t="n">
         <v>191.4111693764301</v>
       </c>
       <c r="M18" t="n">
-        <v>155.2474295201063</v>
+        <v>194.9908235185743</v>
       </c>
       <c r="N18" t="n">
         <v>184.1985016798893</v>
       </c>
       <c r="O18" t="n">
-        <v>195.4530340410004</v>
+        <v>186.0639651950928</v>
       </c>
       <c r="P18" t="n">
-        <v>171.5821735503111</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>114.698139074102</v>
       </c>
       <c r="R18" t="n">
-        <v>55.78844340066619</v>
+        <v>55.78844340066618</v>
       </c>
       <c r="S18" t="n">
         <v>16.69002951411564</v>
       </c>
       <c r="T18" t="n">
-        <v>3.621756109438556</v>
+        <v>3.621756109438555</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05911462637821368</v>
+        <v>0.05911462637821367</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,19 +32382,19 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.7533076978906789</v>
+        <v>0.7533076978906788</v>
       </c>
       <c r="H19" t="n">
-        <v>6.697590259428041</v>
+        <v>6.69759025942804</v>
       </c>
       <c r="I19" t="n">
         <v>22.65401695111242</v>
       </c>
       <c r="J19" t="n">
-        <v>53.258854240871</v>
+        <v>53.25885424087098</v>
       </c>
       <c r="K19" t="n">
-        <v>87.52065799129885</v>
+        <v>87.52065799129883</v>
       </c>
       <c r="L19" t="n">
         <v>111.9963099209469</v>
@@ -32403,25 +32403,25 @@
         <v>118.0844057702634</v>
       </c>
       <c r="N19" t="n">
-        <v>115.276622532671</v>
+        <v>115.2766225326709</v>
       </c>
       <c r="O19" t="n">
         <v>106.476618970948</v>
       </c>
       <c r="P19" t="n">
-        <v>91.10914193397807</v>
+        <v>91.10914193397805</v>
       </c>
       <c r="Q19" t="n">
-        <v>63.07924732064585</v>
+        <v>63.07924732064584</v>
       </c>
       <c r="R19" t="n">
-        <v>33.87145339788452</v>
+        <v>33.87145339788451</v>
       </c>
       <c r="S19" t="n">
-        <v>13.12809869869483</v>
+        <v>13.12809869869482</v>
       </c>
       <c r="T19" t="n">
-        <v>3.2186783455329</v>
+        <v>3.218678345532899</v>
       </c>
       <c r="U19" t="n">
         <v>0.04108951079403707</v>
@@ -32473,13 +32473,13 @@
         <v>142.5344541856479</v>
       </c>
       <c r="K20" t="n">
-        <v>213.6221985786843</v>
+        <v>213.6221985786842</v>
       </c>
       <c r="L20" t="n">
-        <v>265.0172271038057</v>
+        <v>265.0172271038056</v>
       </c>
       <c r="M20" t="n">
-        <v>294.8827285058766</v>
+        <v>294.8827285058765</v>
       </c>
       <c r="N20" t="n">
         <v>293.9495588751947</v>
@@ -32488,22 +32488,22 @@
         <v>282.9550010182427</v>
       </c>
       <c r="P20" t="n">
-        <v>241.4955469737569</v>
+        <v>241.4955469737568</v>
       </c>
       <c r="Q20" t="n">
         <v>181.3530984484647</v>
       </c>
       <c r="R20" t="n">
-        <v>105.4917440049392</v>
+        <v>105.4917440049391</v>
       </c>
       <c r="S20" t="n">
         <v>38.26865049270771</v>
       </c>
       <c r="T20" t="n">
-        <v>7.35144344626782</v>
+        <v>7.351443446267819</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1343496232327642</v>
+        <v>0.1343496232327641</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,10 +32540,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.8985423209488476</v>
+        <v>0.8985423209488475</v>
       </c>
       <c r="H21" t="n">
-        <v>8.678027152321766</v>
+        <v>8.678027152321764</v>
       </c>
       <c r="I21" t="n">
         <v>30.93665447126515</v>
@@ -32558,13 +32558,13 @@
         <v>195.0979719235645</v>
       </c>
       <c r="M21" t="n">
-        <v>206.6705292006222</v>
+        <v>206.6705292006221</v>
       </c>
       <c r="N21" t="n">
-        <v>195.8782073619371</v>
+        <v>156.4023682146774</v>
       </c>
       <c r="O21" t="n">
-        <v>167.6569005757885</v>
+        <v>207.1327397230482</v>
       </c>
       <c r="P21" t="n">
         <v>171.5821735503111</v>
@@ -32573,16 +32573,16 @@
         <v>114.698139074102</v>
       </c>
       <c r="R21" t="n">
-        <v>55.78844340066619</v>
+        <v>55.78844340066618</v>
       </c>
       <c r="S21" t="n">
         <v>16.69002951411564</v>
       </c>
       <c r="T21" t="n">
-        <v>3.621756109438556</v>
+        <v>3.621756109438555</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05911462637821368</v>
+        <v>0.05911462637821367</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,19 +32619,19 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.7533076978906789</v>
+        <v>0.7533076978906788</v>
       </c>
       <c r="H22" t="n">
-        <v>6.697590259428041</v>
+        <v>6.69759025942804</v>
       </c>
       <c r="I22" t="n">
         <v>22.65401695111242</v>
       </c>
       <c r="J22" t="n">
-        <v>53.258854240871</v>
+        <v>53.25885424087098</v>
       </c>
       <c r="K22" t="n">
-        <v>87.52065799129885</v>
+        <v>87.52065799129883</v>
       </c>
       <c r="L22" t="n">
         <v>111.9963099209469</v>
@@ -32640,25 +32640,25 @@
         <v>118.0844057702634</v>
       </c>
       <c r="N22" t="n">
-        <v>115.276622532671</v>
+        <v>115.2766225326709</v>
       </c>
       <c r="O22" t="n">
         <v>106.476618970948</v>
       </c>
       <c r="P22" t="n">
-        <v>91.10914193397807</v>
+        <v>91.10914193397805</v>
       </c>
       <c r="Q22" t="n">
-        <v>63.07924732064585</v>
+        <v>63.07924732064584</v>
       </c>
       <c r="R22" t="n">
-        <v>33.87145339788452</v>
+        <v>33.87145339788451</v>
       </c>
       <c r="S22" t="n">
-        <v>13.12809869869483</v>
+        <v>13.12809869869482</v>
       </c>
       <c r="T22" t="n">
-        <v>3.2186783455329</v>
+        <v>3.218678345532899</v>
       </c>
       <c r="U22" t="n">
         <v>0.04108951079403707</v>
@@ -32710,13 +32710,13 @@
         <v>142.5344541856479</v>
       </c>
       <c r="K23" t="n">
-        <v>213.6221985786843</v>
+        <v>213.6221985786842</v>
       </c>
       <c r="L23" t="n">
-        <v>265.0172271038057</v>
+        <v>265.0172271038056</v>
       </c>
       <c r="M23" t="n">
-        <v>294.8827285058766</v>
+        <v>294.8827285058765</v>
       </c>
       <c r="N23" t="n">
         <v>293.9495588751947</v>
@@ -32725,22 +32725,22 @@
         <v>282.9550010182427</v>
       </c>
       <c r="P23" t="n">
-        <v>241.4955469737569</v>
+        <v>241.4955469737568</v>
       </c>
       <c r="Q23" t="n">
         <v>181.3530984484647</v>
       </c>
       <c r="R23" t="n">
-        <v>105.4917440049392</v>
+        <v>105.4917440049391</v>
       </c>
       <c r="S23" t="n">
         <v>38.26865049270771</v>
       </c>
       <c r="T23" t="n">
-        <v>7.35144344626782</v>
+        <v>7.351443446267819</v>
       </c>
       <c r="U23" t="n">
-        <v>0.1343496232327642</v>
+        <v>0.1343496232327641</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,10 +32777,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.8985423209488476</v>
+        <v>0.8985423209488475</v>
       </c>
       <c r="H24" t="n">
-        <v>8.678027152321766</v>
+        <v>8.678027152321764</v>
       </c>
       <c r="I24" t="n">
         <v>30.93665447126515</v>
@@ -32792,16 +32792,16 @@
         <v>145.0948799577795</v>
       </c>
       <c r="L24" t="n">
-        <v>195.0979719235645</v>
+        <v>155.6221327763048</v>
       </c>
       <c r="M24" t="n">
-        <v>167.1946900533625</v>
+        <v>206.6705292006221</v>
       </c>
       <c r="N24" t="n">
         <v>195.8782073619371</v>
       </c>
       <c r="O24" t="n">
-        <v>207.1327397230483</v>
+        <v>207.1327397230482</v>
       </c>
       <c r="P24" t="n">
         <v>171.5821735503111</v>
@@ -32810,16 +32810,16 @@
         <v>114.698139074102</v>
       </c>
       <c r="R24" t="n">
-        <v>55.78844340066619</v>
+        <v>55.78844340066618</v>
       </c>
       <c r="S24" t="n">
         <v>16.69002951411564</v>
       </c>
       <c r="T24" t="n">
-        <v>3.621756109438556</v>
+        <v>3.621756109438555</v>
       </c>
       <c r="U24" t="n">
-        <v>0.05911462637821368</v>
+        <v>0.05911462637821367</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,19 +32856,19 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.7533076978906789</v>
+        <v>0.7533076978906788</v>
       </c>
       <c r="H25" t="n">
-        <v>6.697590259428041</v>
+        <v>6.69759025942804</v>
       </c>
       <c r="I25" t="n">
         <v>22.65401695111242</v>
       </c>
       <c r="J25" t="n">
-        <v>53.258854240871</v>
+        <v>53.25885424087098</v>
       </c>
       <c r="K25" t="n">
-        <v>87.52065799129885</v>
+        <v>87.52065799129883</v>
       </c>
       <c r="L25" t="n">
         <v>111.9963099209469</v>
@@ -32877,25 +32877,25 @@
         <v>118.0844057702634</v>
       </c>
       <c r="N25" t="n">
-        <v>115.276622532671</v>
+        <v>115.2766225326709</v>
       </c>
       <c r="O25" t="n">
         <v>106.476618970948</v>
       </c>
       <c r="P25" t="n">
-        <v>91.10914193397807</v>
+        <v>91.10914193397805</v>
       </c>
       <c r="Q25" t="n">
-        <v>63.07924732064585</v>
+        <v>63.07924732064584</v>
       </c>
       <c r="R25" t="n">
-        <v>33.87145339788452</v>
+        <v>33.87145339788451</v>
       </c>
       <c r="S25" t="n">
-        <v>13.12809869869483</v>
+        <v>13.12809869869482</v>
       </c>
       <c r="T25" t="n">
-        <v>3.2186783455329</v>
+        <v>3.218678345532899</v>
       </c>
       <c r="U25" t="n">
         <v>0.04108951079403707</v>
@@ -32947,13 +32947,13 @@
         <v>142.5344541856479</v>
       </c>
       <c r="K26" t="n">
-        <v>213.6221985786843</v>
+        <v>213.6221985786842</v>
       </c>
       <c r="L26" t="n">
-        <v>265.0172271038057</v>
+        <v>265.0172271038056</v>
       </c>
       <c r="M26" t="n">
-        <v>294.8827285058766</v>
+        <v>294.8827285058765</v>
       </c>
       <c r="N26" t="n">
         <v>293.9495588751947</v>
@@ -32962,22 +32962,22 @@
         <v>282.9550010182427</v>
       </c>
       <c r="P26" t="n">
-        <v>241.4955469737569</v>
+        <v>241.4955469737568</v>
       </c>
       <c r="Q26" t="n">
         <v>181.3530984484647</v>
       </c>
       <c r="R26" t="n">
-        <v>105.4917440049392</v>
+        <v>105.4917440049391</v>
       </c>
       <c r="S26" t="n">
         <v>38.26865049270771</v>
       </c>
       <c r="T26" t="n">
-        <v>7.35144344626782</v>
+        <v>7.351443446267819</v>
       </c>
       <c r="U26" t="n">
-        <v>0.1343496232327642</v>
+        <v>0.1343496232327641</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,10 +33014,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.8985423209488476</v>
+        <v>0.8985423209488475</v>
       </c>
       <c r="H27" t="n">
-        <v>8.678027152321766</v>
+        <v>8.678027152321764</v>
       </c>
       <c r="I27" t="n">
         <v>30.93665447126515</v>
@@ -33026,19 +33026,19 @@
         <v>84.8925444542067</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>145.0948799577795</v>
       </c>
       <c r="L27" t="n">
         <v>195.0979719235645</v>
       </c>
       <c r="M27" t="n">
-        <v>206.6705292006222</v>
+        <v>206.6705292006221</v>
       </c>
       <c r="N27" t="n">
-        <v>163.6558091980979</v>
+        <v>195.8782073619371</v>
       </c>
       <c r="O27" t="n">
-        <v>207.1327397230483</v>
+        <v>167.6569005757885</v>
       </c>
       <c r="P27" t="n">
         <v>171.5821735503111</v>
@@ -33047,16 +33047,16 @@
         <v>114.698139074102</v>
       </c>
       <c r="R27" t="n">
-        <v>55.78844340066619</v>
+        <v>55.78844340066618</v>
       </c>
       <c r="S27" t="n">
         <v>16.69002951411564</v>
       </c>
       <c r="T27" t="n">
-        <v>3.621756109438556</v>
+        <v>3.621756109438555</v>
       </c>
       <c r="U27" t="n">
-        <v>0.05911462637821368</v>
+        <v>0.05911462637821367</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,19 +33093,19 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.7533076978906789</v>
+        <v>0.7533076978906788</v>
       </c>
       <c r="H28" t="n">
-        <v>6.697590259428041</v>
+        <v>6.69759025942804</v>
       </c>
       <c r="I28" t="n">
         <v>22.65401695111242</v>
       </c>
       <c r="J28" t="n">
-        <v>53.258854240871</v>
+        <v>53.25885424087098</v>
       </c>
       <c r="K28" t="n">
-        <v>87.52065799129885</v>
+        <v>87.52065799129883</v>
       </c>
       <c r="L28" t="n">
         <v>111.9963099209469</v>
@@ -33114,25 +33114,25 @@
         <v>118.0844057702634</v>
       </c>
       <c r="N28" t="n">
-        <v>115.276622532671</v>
+        <v>115.2766225326709</v>
       </c>
       <c r="O28" t="n">
         <v>106.476618970948</v>
       </c>
       <c r="P28" t="n">
-        <v>91.10914193397807</v>
+        <v>91.10914193397805</v>
       </c>
       <c r="Q28" t="n">
-        <v>63.07924732064585</v>
+        <v>63.07924732064584</v>
       </c>
       <c r="R28" t="n">
-        <v>33.87145339788452</v>
+        <v>33.87145339788451</v>
       </c>
       <c r="S28" t="n">
-        <v>13.12809869869483</v>
+        <v>13.12809869869482</v>
       </c>
       <c r="T28" t="n">
-        <v>3.2186783455329</v>
+        <v>3.218678345532899</v>
       </c>
       <c r="U28" t="n">
         <v>0.04108951079403707</v>
@@ -33184,13 +33184,13 @@
         <v>142.5344541856479</v>
       </c>
       <c r="K29" t="n">
-        <v>213.6221985786843</v>
+        <v>213.6221985786842</v>
       </c>
       <c r="L29" t="n">
-        <v>265.0172271038057</v>
+        <v>265.0172271038056</v>
       </c>
       <c r="M29" t="n">
-        <v>294.8827285058766</v>
+        <v>294.8827285058765</v>
       </c>
       <c r="N29" t="n">
         <v>293.9495588751947</v>
@@ -33199,22 +33199,22 @@
         <v>282.9550010182427</v>
       </c>
       <c r="P29" t="n">
-        <v>241.4955469737569</v>
+        <v>241.4955469737568</v>
       </c>
       <c r="Q29" t="n">
         <v>181.3530984484647</v>
       </c>
       <c r="R29" t="n">
-        <v>105.4917440049392</v>
+        <v>105.4917440049391</v>
       </c>
       <c r="S29" t="n">
         <v>38.26865049270771</v>
       </c>
       <c r="T29" t="n">
-        <v>7.35144344626782</v>
+        <v>7.351443446267819</v>
       </c>
       <c r="U29" t="n">
-        <v>0.1343496232327642</v>
+        <v>0.1343496232327641</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,10 +33251,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.8985423209488476</v>
+        <v>0.8985423209488475</v>
       </c>
       <c r="H30" t="n">
-        <v>8.678027152321766</v>
+        <v>8.678027152321764</v>
       </c>
       <c r="I30" t="n">
         <v>30.93665447126515</v>
@@ -33269,13 +33269,13 @@
         <v>195.0979719235645</v>
       </c>
       <c r="M30" t="n">
-        <v>206.6705292006222</v>
+        <v>167.1946900533624</v>
       </c>
       <c r="N30" t="n">
-        <v>156.4023682146774</v>
+        <v>195.8782073619371</v>
       </c>
       <c r="O30" t="n">
-        <v>207.1327397230483</v>
+        <v>207.1327397230482</v>
       </c>
       <c r="P30" t="n">
         <v>171.5821735503111</v>
@@ -33284,16 +33284,16 @@
         <v>114.698139074102</v>
       </c>
       <c r="R30" t="n">
-        <v>55.78844340066619</v>
+        <v>55.78844340066618</v>
       </c>
       <c r="S30" t="n">
         <v>16.69002951411564</v>
       </c>
       <c r="T30" t="n">
-        <v>3.621756109438556</v>
+        <v>3.621756109438555</v>
       </c>
       <c r="U30" t="n">
-        <v>0.05911462637821368</v>
+        <v>0.05911462637821367</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,19 +33330,19 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.7533076978906789</v>
+        <v>0.7533076978906788</v>
       </c>
       <c r="H31" t="n">
-        <v>6.697590259428041</v>
+        <v>6.69759025942804</v>
       </c>
       <c r="I31" t="n">
         <v>22.65401695111242</v>
       </c>
       <c r="J31" t="n">
-        <v>53.258854240871</v>
+        <v>53.25885424087098</v>
       </c>
       <c r="K31" t="n">
-        <v>87.52065799129885</v>
+        <v>87.52065799129883</v>
       </c>
       <c r="L31" t="n">
         <v>111.9963099209469</v>
@@ -33351,25 +33351,25 @@
         <v>118.0844057702634</v>
       </c>
       <c r="N31" t="n">
-        <v>115.276622532671</v>
+        <v>115.2766225326709</v>
       </c>
       <c r="O31" t="n">
         <v>106.476618970948</v>
       </c>
       <c r="P31" t="n">
-        <v>91.10914193397807</v>
+        <v>91.10914193397805</v>
       </c>
       <c r="Q31" t="n">
-        <v>63.07924732064585</v>
+        <v>63.07924732064584</v>
       </c>
       <c r="R31" t="n">
-        <v>33.87145339788452</v>
+        <v>33.87145339788451</v>
       </c>
       <c r="S31" t="n">
-        <v>13.12809869869483</v>
+        <v>13.12809869869482</v>
       </c>
       <c r="T31" t="n">
-        <v>3.2186783455329</v>
+        <v>3.218678345532899</v>
       </c>
       <c r="U31" t="n">
         <v>0.04108951079403707</v>
@@ -33421,13 +33421,13 @@
         <v>142.5344541856479</v>
       </c>
       <c r="K32" t="n">
-        <v>213.6221985786843</v>
+        <v>213.6221985786842</v>
       </c>
       <c r="L32" t="n">
-        <v>265.0172271038057</v>
+        <v>265.0172271038056</v>
       </c>
       <c r="M32" t="n">
-        <v>294.8827285058766</v>
+        <v>294.8827285058765</v>
       </c>
       <c r="N32" t="n">
         <v>293.9495588751947</v>
@@ -33436,22 +33436,22 @@
         <v>282.9550010182427</v>
       </c>
       <c r="P32" t="n">
-        <v>241.4955469737569</v>
+        <v>241.4955469737568</v>
       </c>
       <c r="Q32" t="n">
         <v>181.3530984484647</v>
       </c>
       <c r="R32" t="n">
-        <v>105.4917440049392</v>
+        <v>105.4917440049391</v>
       </c>
       <c r="S32" t="n">
         <v>38.26865049270771</v>
       </c>
       <c r="T32" t="n">
-        <v>7.35144344626782</v>
+        <v>7.351443446267819</v>
       </c>
       <c r="U32" t="n">
-        <v>0.1343496232327642</v>
+        <v>0.1343496232327641</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,10 +33488,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.8985423209488476</v>
+        <v>0.8985423209488475</v>
       </c>
       <c r="H33" t="n">
-        <v>8.678027152321766</v>
+        <v>8.678027152321764</v>
       </c>
       <c r="I33" t="n">
         <v>30.93665447126515</v>
@@ -33500,37 +33500,37 @@
         <v>84.8925444542067</v>
       </c>
       <c r="K33" t="n">
-        <v>143.2268069465006</v>
+        <v>145.0948799577795</v>
       </c>
       <c r="L33" t="n">
         <v>195.0979719235645</v>
       </c>
       <c r="M33" t="n">
-        <v>206.6705292006222</v>
+        <v>206.6705292006221</v>
       </c>
       <c r="N33" t="n">
         <v>195.8782073619371</v>
       </c>
       <c r="O33" t="n">
-        <v>207.1327397230483</v>
+        <v>167.6569005757885</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>171.5821735503111</v>
       </c>
       <c r="Q33" t="n">
         <v>114.698139074102</v>
       </c>
       <c r="R33" t="n">
-        <v>55.78844340066619</v>
+        <v>55.78844340066618</v>
       </c>
       <c r="S33" t="n">
         <v>16.69002951411564</v>
       </c>
       <c r="T33" t="n">
-        <v>3.621756109438556</v>
+        <v>3.621756109438555</v>
       </c>
       <c r="U33" t="n">
-        <v>0.05911462637821368</v>
+        <v>0.05911462637821367</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,19 +33567,19 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.7533076978906789</v>
+        <v>0.7533076978906788</v>
       </c>
       <c r="H34" t="n">
-        <v>6.697590259428041</v>
+        <v>6.69759025942804</v>
       </c>
       <c r="I34" t="n">
         <v>22.65401695111242</v>
       </c>
       <c r="J34" t="n">
-        <v>53.258854240871</v>
+        <v>53.25885424087098</v>
       </c>
       <c r="K34" t="n">
-        <v>87.52065799129885</v>
+        <v>87.52065799129883</v>
       </c>
       <c r="L34" t="n">
         <v>111.9963099209469</v>
@@ -33588,25 +33588,25 @@
         <v>118.0844057702634</v>
       </c>
       <c r="N34" t="n">
-        <v>115.276622532671</v>
+        <v>115.2766225326709</v>
       </c>
       <c r="O34" t="n">
         <v>106.476618970948</v>
       </c>
       <c r="P34" t="n">
-        <v>91.10914193397807</v>
+        <v>91.10914193397805</v>
       </c>
       <c r="Q34" t="n">
-        <v>63.07924732064585</v>
+        <v>63.07924732064584</v>
       </c>
       <c r="R34" t="n">
-        <v>33.87145339788452</v>
+        <v>33.87145339788451</v>
       </c>
       <c r="S34" t="n">
-        <v>13.12809869869483</v>
+        <v>13.12809869869482</v>
       </c>
       <c r="T34" t="n">
-        <v>3.2186783455329</v>
+        <v>3.218678345532899</v>
       </c>
       <c r="U34" t="n">
         <v>0.04108951079403707</v>
@@ -33658,10 +33658,10 @@
         <v>142.5344541856479</v>
       </c>
       <c r="K35" t="n">
-        <v>213.6221985786843</v>
+        <v>213.6221985786842</v>
       </c>
       <c r="L35" t="n">
-        <v>265.0172271038057</v>
+        <v>265.0172271038056</v>
       </c>
       <c r="M35" t="n">
         <v>283.2030228238287</v>
@@ -33673,22 +33673,22 @@
         <v>282.9550010182427</v>
       </c>
       <c r="P35" t="n">
-        <v>241.4955469737569</v>
+        <v>241.4955469737568</v>
       </c>
       <c r="Q35" t="n">
         <v>181.3530984484647</v>
       </c>
       <c r="R35" t="n">
-        <v>105.4917440049392</v>
+        <v>105.4917440049391</v>
       </c>
       <c r="S35" t="n">
         <v>38.26865049270771</v>
       </c>
       <c r="T35" t="n">
-        <v>7.35144344626782</v>
+        <v>7.351443446267819</v>
       </c>
       <c r="U35" t="n">
-        <v>0.1343496232327642</v>
+        <v>0.1343496232327641</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,10 +33725,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.8985423209488476</v>
+        <v>0.8985423209488475</v>
       </c>
       <c r="H36" t="n">
-        <v>8.678027152321766</v>
+        <v>8.678027152321764</v>
       </c>
       <c r="I36" t="n">
         <v>30.93665447126515</v>
@@ -33737,16 +33737,16 @@
         <v>84.8925444542067</v>
       </c>
       <c r="K36" t="n">
-        <v>145.0948799577795</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>191.4111693764301</v>
       </c>
       <c r="M36" t="n">
-        <v>194.9908235185743</v>
+        <v>155.2474295201063</v>
       </c>
       <c r="N36" t="n">
-        <v>137.2016666980008</v>
+        <v>184.1985016798893</v>
       </c>
       <c r="O36" t="n">
         <v>195.4530340410004</v>
@@ -33758,16 +33758,16 @@
         <v>114.698139074102</v>
       </c>
       <c r="R36" t="n">
-        <v>55.78844340066619</v>
+        <v>55.78844340066618</v>
       </c>
       <c r="S36" t="n">
         <v>16.69002951411564</v>
       </c>
       <c r="T36" t="n">
-        <v>3.621756109438556</v>
+        <v>3.621756109438555</v>
       </c>
       <c r="U36" t="n">
-        <v>0.05911462637821368</v>
+        <v>0.05911462637821367</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,19 +33804,19 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.7533076978906789</v>
+        <v>0.7533076978906788</v>
       </c>
       <c r="H37" t="n">
-        <v>6.697590259428041</v>
+        <v>6.69759025942804</v>
       </c>
       <c r="I37" t="n">
         <v>22.65401695111242</v>
       </c>
       <c r="J37" t="n">
-        <v>53.258854240871</v>
+        <v>53.25885424087098</v>
       </c>
       <c r="K37" t="n">
-        <v>87.52065799129885</v>
+        <v>87.52065799129883</v>
       </c>
       <c r="L37" t="n">
         <v>111.9963099209469</v>
@@ -33825,25 +33825,25 @@
         <v>118.0844057702634</v>
       </c>
       <c r="N37" t="n">
-        <v>115.276622532671</v>
+        <v>115.2766225326709</v>
       </c>
       <c r="O37" t="n">
         <v>106.476618970948</v>
       </c>
       <c r="P37" t="n">
-        <v>91.10914193397807</v>
+        <v>91.10914193397805</v>
       </c>
       <c r="Q37" t="n">
-        <v>63.07924732064585</v>
+        <v>63.07924732064584</v>
       </c>
       <c r="R37" t="n">
-        <v>33.87145339788452</v>
+        <v>33.87145339788451</v>
       </c>
       <c r="S37" t="n">
-        <v>13.12809869869483</v>
+        <v>13.12809869869482</v>
       </c>
       <c r="T37" t="n">
-        <v>3.2186783455329</v>
+        <v>3.218678345532899</v>
       </c>
       <c r="U37" t="n">
         <v>0.04108951079403707</v>
@@ -33895,10 +33895,10 @@
         <v>142.5344541856479</v>
       </c>
       <c r="K38" t="n">
-        <v>213.6221985786843</v>
+        <v>213.6221985786842</v>
       </c>
       <c r="L38" t="n">
-        <v>265.0172271038057</v>
+        <v>265.0172271038056</v>
       </c>
       <c r="M38" t="n">
         <v>283.2030228238287</v>
@@ -33910,22 +33910,22 @@
         <v>282.9550010182427</v>
       </c>
       <c r="P38" t="n">
-        <v>241.4955469737569</v>
+        <v>241.4955469737568</v>
       </c>
       <c r="Q38" t="n">
         <v>181.3530984484647</v>
       </c>
       <c r="R38" t="n">
-        <v>105.4917440049392</v>
+        <v>105.4917440049391</v>
       </c>
       <c r="S38" t="n">
         <v>38.26865049270771</v>
       </c>
       <c r="T38" t="n">
-        <v>7.35144344626782</v>
+        <v>7.351443446267819</v>
       </c>
       <c r="U38" t="n">
-        <v>0.1343496232327642</v>
+        <v>0.1343496232327641</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,10 +33962,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.8985423209488476</v>
+        <v>0.8985423209488475</v>
       </c>
       <c r="H39" t="n">
-        <v>8.678027152321766</v>
+        <v>8.678027152321764</v>
       </c>
       <c r="I39" t="n">
         <v>30.93665447126515</v>
@@ -33980,13 +33980,13 @@
         <v>191.4111693764301</v>
       </c>
       <c r="M39" t="n">
-        <v>147.9939885366858</v>
+        <v>194.9908235185743</v>
       </c>
       <c r="N39" t="n">
         <v>184.1985016798893</v>
       </c>
       <c r="O39" t="n">
-        <v>195.4530340410004</v>
+        <v>148.456199059112</v>
       </c>
       <c r="P39" t="n">
         <v>171.5821735503111</v>
@@ -33995,16 +33995,16 @@
         <v>114.698139074102</v>
       </c>
       <c r="R39" t="n">
-        <v>55.78844340066619</v>
+        <v>55.78844340066618</v>
       </c>
       <c r="S39" t="n">
         <v>16.69002951411564</v>
       </c>
       <c r="T39" t="n">
-        <v>3.621756109438556</v>
+        <v>3.621756109438555</v>
       </c>
       <c r="U39" t="n">
-        <v>0.05911462637821368</v>
+        <v>0.05911462637821367</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,19 +34041,19 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.7533076978906789</v>
+        <v>0.7533076978906788</v>
       </c>
       <c r="H40" t="n">
-        <v>6.697590259428041</v>
+        <v>6.69759025942804</v>
       </c>
       <c r="I40" t="n">
         <v>22.65401695111242</v>
       </c>
       <c r="J40" t="n">
-        <v>53.258854240871</v>
+        <v>53.25885424087098</v>
       </c>
       <c r="K40" t="n">
-        <v>87.52065799129885</v>
+        <v>87.52065799129883</v>
       </c>
       <c r="L40" t="n">
         <v>111.9963099209469</v>
@@ -34062,25 +34062,25 @@
         <v>118.0844057702634</v>
       </c>
       <c r="N40" t="n">
-        <v>115.276622532671</v>
+        <v>115.2766225326709</v>
       </c>
       <c r="O40" t="n">
         <v>106.476618970948</v>
       </c>
       <c r="P40" t="n">
-        <v>91.10914193397807</v>
+        <v>91.10914193397805</v>
       </c>
       <c r="Q40" t="n">
-        <v>63.07924732064585</v>
+        <v>63.07924732064584</v>
       </c>
       <c r="R40" t="n">
-        <v>33.87145339788452</v>
+        <v>33.87145339788451</v>
       </c>
       <c r="S40" t="n">
-        <v>13.12809869869483</v>
+        <v>13.12809869869482</v>
       </c>
       <c r="T40" t="n">
-        <v>3.2186783455329</v>
+        <v>3.218678345532899</v>
       </c>
       <c r="U40" t="n">
         <v>0.04108951079403707</v>
@@ -34132,10 +34132,10 @@
         <v>142.5344541856479</v>
       </c>
       <c r="K41" t="n">
-        <v>213.6221985786843</v>
+        <v>213.6221985786842</v>
       </c>
       <c r="L41" t="n">
-        <v>265.0172271038057</v>
+        <v>265.0172271038056</v>
       </c>
       <c r="M41" t="n">
         <v>283.2030228238287</v>
@@ -34147,22 +34147,22 @@
         <v>282.9550010182427</v>
       </c>
       <c r="P41" t="n">
-        <v>241.4955469737569</v>
+        <v>241.4955469737568</v>
       </c>
       <c r="Q41" t="n">
         <v>181.3530984484647</v>
       </c>
       <c r="R41" t="n">
-        <v>105.4917440049392</v>
+        <v>105.4917440049391</v>
       </c>
       <c r="S41" t="n">
         <v>38.26865049270771</v>
       </c>
       <c r="T41" t="n">
-        <v>7.35144344626782</v>
+        <v>7.351443446267819</v>
       </c>
       <c r="U41" t="n">
-        <v>0.1343496232327642</v>
+        <v>0.1343496232327641</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,10 +34199,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.8985423209488476</v>
+        <v>0.8985423209488475</v>
       </c>
       <c r="H42" t="n">
-        <v>8.678027152321766</v>
+        <v>8.678027152321764</v>
       </c>
       <c r="I42" t="n">
         <v>30.93665447126515</v>
@@ -34211,19 +34211,19 @@
         <v>84.8925444542067</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>145.0948799577795</v>
       </c>
       <c r="L42" t="n">
         <v>191.4111693764301</v>
       </c>
       <c r="M42" t="n">
-        <v>155.2474295201063</v>
+        <v>194.9908235185743</v>
       </c>
       <c r="N42" t="n">
         <v>184.1985016798893</v>
       </c>
       <c r="O42" t="n">
-        <v>195.4530340410004</v>
+        <v>148.456199059112</v>
       </c>
       <c r="P42" t="n">
         <v>171.5821735503111</v>
@@ -34232,16 +34232,16 @@
         <v>114.698139074102</v>
       </c>
       <c r="R42" t="n">
-        <v>55.78844340066619</v>
+        <v>55.78844340066618</v>
       </c>
       <c r="S42" t="n">
         <v>16.69002951411564</v>
       </c>
       <c r="T42" t="n">
-        <v>3.621756109438556</v>
+        <v>3.621756109438555</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05911462637821368</v>
+        <v>0.05911462637821367</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,19 +34278,19 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.7533076978906789</v>
+        <v>0.7533076978906788</v>
       </c>
       <c r="H43" t="n">
-        <v>6.697590259428041</v>
+        <v>6.69759025942804</v>
       </c>
       <c r="I43" t="n">
         <v>22.65401695111242</v>
       </c>
       <c r="J43" t="n">
-        <v>53.258854240871</v>
+        <v>53.25885424087098</v>
       </c>
       <c r="K43" t="n">
-        <v>87.52065799129885</v>
+        <v>87.52065799129883</v>
       </c>
       <c r="L43" t="n">
         <v>111.9963099209469</v>
@@ -34299,25 +34299,25 @@
         <v>118.0844057702634</v>
       </c>
       <c r="N43" t="n">
-        <v>115.276622532671</v>
+        <v>115.2766225326709</v>
       </c>
       <c r="O43" t="n">
         <v>106.476618970948</v>
       </c>
       <c r="P43" t="n">
-        <v>91.10914193397807</v>
+        <v>91.10914193397805</v>
       </c>
       <c r="Q43" t="n">
-        <v>63.07924732064585</v>
+        <v>63.07924732064584</v>
       </c>
       <c r="R43" t="n">
-        <v>33.87145339788452</v>
+        <v>33.87145339788451</v>
       </c>
       <c r="S43" t="n">
-        <v>13.12809869869483</v>
+        <v>13.12809869869482</v>
       </c>
       <c r="T43" t="n">
-        <v>3.2186783455329</v>
+        <v>3.218678345532899</v>
       </c>
       <c r="U43" t="n">
         <v>0.04108951079403707</v>
@@ -34369,10 +34369,10 @@
         <v>142.5344541856479</v>
       </c>
       <c r="K44" t="n">
-        <v>213.6221985786843</v>
+        <v>213.6221985786842</v>
       </c>
       <c r="L44" t="n">
-        <v>265.0172271038057</v>
+        <v>265.0172271038056</v>
       </c>
       <c r="M44" t="n">
         <v>271.5233171417809</v>
@@ -34384,22 +34384,22 @@
         <v>271.2752953361949</v>
       </c>
       <c r="P44" t="n">
-        <v>241.4955469737569</v>
+        <v>241.4955469737568</v>
       </c>
       <c r="Q44" t="n">
         <v>181.3530984484647</v>
       </c>
       <c r="R44" t="n">
-        <v>105.4917440049392</v>
+        <v>105.4917440049391</v>
       </c>
       <c r="S44" t="n">
         <v>38.26865049270771</v>
       </c>
       <c r="T44" t="n">
-        <v>7.35144344626782</v>
+        <v>7.351443446267819</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1343496232327642</v>
+        <v>0.1343496232327641</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,10 +34436,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8985423209488476</v>
+        <v>0.8985423209488475</v>
       </c>
       <c r="H45" t="n">
-        <v>8.678027152321766</v>
+        <v>8.678027152321764</v>
       </c>
       <c r="I45" t="n">
         <v>30.93665447126515</v>
@@ -34448,7 +34448,7 @@
         <v>84.8925444542067</v>
       </c>
       <c r="K45" t="n">
-        <v>145.0948799577795</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
         <v>179.7314636943823</v>
@@ -34457,28 +34457,28 @@
         <v>183.3111178365264</v>
       </c>
       <c r="N45" t="n">
-        <v>172.5187959978414</v>
+        <v>133.2473092996583</v>
       </c>
       <c r="O45" t="n">
-        <v>174.8561668133297</v>
+        <v>183.7733283589526</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>171.5821735503111</v>
       </c>
       <c r="Q45" t="n">
         <v>114.698139074102</v>
       </c>
       <c r="R45" t="n">
-        <v>55.78844340066619</v>
+        <v>55.78844340066618</v>
       </c>
       <c r="S45" t="n">
         <v>16.69002951411564</v>
       </c>
       <c r="T45" t="n">
-        <v>3.621756109438556</v>
+        <v>3.621756109438555</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05911462637821368</v>
+        <v>0.05911462637821367</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,19 +34515,19 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.7533076978906789</v>
+        <v>0.7533076978906788</v>
       </c>
       <c r="H46" t="n">
-        <v>6.697590259428041</v>
+        <v>6.69759025942804</v>
       </c>
       <c r="I46" t="n">
         <v>22.65401695111242</v>
       </c>
       <c r="J46" t="n">
-        <v>53.258854240871</v>
+        <v>53.25885424087098</v>
       </c>
       <c r="K46" t="n">
-        <v>87.52065799129885</v>
+        <v>87.52065799129883</v>
       </c>
       <c r="L46" t="n">
         <v>111.9963099209469</v>
@@ -34536,25 +34536,25 @@
         <v>118.0844057702634</v>
       </c>
       <c r="N46" t="n">
-        <v>115.276622532671</v>
+        <v>115.2766225326709</v>
       </c>
       <c r="O46" t="n">
         <v>106.476618970948</v>
       </c>
       <c r="P46" t="n">
-        <v>91.10914193397807</v>
+        <v>91.10914193397805</v>
       </c>
       <c r="Q46" t="n">
-        <v>63.07924732064585</v>
+        <v>63.07924732064584</v>
       </c>
       <c r="R46" t="n">
-        <v>33.87145339788452</v>
+        <v>33.87145339788451</v>
       </c>
       <c r="S46" t="n">
-        <v>13.12809869869483</v>
+        <v>13.12809869869482</v>
       </c>
       <c r="T46" t="n">
-        <v>3.2186783455329</v>
+        <v>3.218678345532899</v>
       </c>
       <c r="U46" t="n">
         <v>0.04108951079403707</v>
@@ -35413,7 +35413,7 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>29.25081213381844</v>
+        <v>29.25081213381839</v>
       </c>
       <c r="M11" t="n">
         <v>52.85678959655596</v>
@@ -35425,7 +35425,7 @@
         <v>52.85678959655596</v>
       </c>
       <c r="P11" t="n">
-        <v>10.26255121848732</v>
+        <v>10.26255121848726</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35489,7 +35489,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>7.253440983420489</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>52.85678959655596</v>
@@ -35498,13 +35498,13 @@
         <v>52.85678959655596</v>
       </c>
       <c r="N12" t="n">
-        <v>5.859954614667495</v>
+        <v>52.85678959655596</v>
       </c>
       <c r="O12" t="n">
-        <v>52.85678959655596</v>
+        <v>13.113395598088</v>
       </c>
       <c r="P12" t="n">
-        <v>37.60776613598085</v>
+        <v>37.60776613598082</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35650,7 +35650,7 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>29.25081213381844</v>
+        <v>29.25081213381839</v>
       </c>
       <c r="M14" t="n">
         <v>52.85678959655596</v>
@@ -35662,7 +35662,7 @@
         <v>52.85678959655596</v>
       </c>
       <c r="P14" t="n">
-        <v>10.26255121848732</v>
+        <v>10.26255121848726</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35726,22 +35726,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>7.253440983420489</v>
       </c>
       <c r="L15" t="n">
         <v>52.85678959655596</v>
       </c>
       <c r="M15" t="n">
-        <v>13.11339559808797</v>
+        <v>52.85678959655596</v>
       </c>
       <c r="N15" t="n">
         <v>52.85678959655596</v>
       </c>
       <c r="O15" t="n">
-        <v>52.85678959655596</v>
+        <v>5.859954614667524</v>
       </c>
       <c r="P15" t="n">
-        <v>37.60776613598085</v>
+        <v>37.60776613598082</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35887,7 +35887,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>29.25081213381844</v>
+        <v>29.25081213381839</v>
       </c>
       <c r="M17" t="n">
         <v>52.85678959655596</v>
@@ -35899,7 +35899,7 @@
         <v>52.85678959655596</v>
       </c>
       <c r="P17" t="n">
-        <v>10.26255121848732</v>
+        <v>10.26255121848726</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35963,22 +35963,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>7.253440983420489</v>
       </c>
       <c r="L18" t="n">
         <v>52.85678959655596</v>
       </c>
       <c r="M18" t="n">
-        <v>13.11339559808797</v>
+        <v>52.85678959655596</v>
       </c>
       <c r="N18" t="n">
         <v>52.85678959655596</v>
       </c>
       <c r="O18" t="n">
-        <v>52.85678959655596</v>
+        <v>43.46772075064835</v>
       </c>
       <c r="P18" t="n">
-        <v>37.60776613598085</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36124,19 +36124,19 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>29.25081213381844</v>
+        <v>29.25081213381839</v>
       </c>
       <c r="M20" t="n">
-        <v>64.53649527860384</v>
+        <v>64.53649527860378</v>
       </c>
       <c r="N20" t="n">
-        <v>64.53649527860384</v>
+        <v>64.53649527860378</v>
       </c>
       <c r="O20" t="n">
         <v>52.85678959655596</v>
       </c>
       <c r="P20" t="n">
-        <v>10.26255121848732</v>
+        <v>10.26255121848726</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -36203,19 +36203,19 @@
         <v>7.253440983420489</v>
       </c>
       <c r="L21" t="n">
-        <v>56.54359214369032</v>
+        <v>56.54359214369029</v>
       </c>
       <c r="M21" t="n">
-        <v>64.53649527860384</v>
+        <v>64.53649527860378</v>
       </c>
       <c r="N21" t="n">
-        <v>64.53649527860384</v>
+        <v>25.06065613134407</v>
       </c>
       <c r="O21" t="n">
-        <v>25.0606561313441</v>
+        <v>64.53649527860378</v>
       </c>
       <c r="P21" t="n">
-        <v>37.60776613598085</v>
+        <v>37.60776613598082</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36361,19 +36361,19 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>29.25081213381844</v>
+        <v>29.25081213381839</v>
       </c>
       <c r="M23" t="n">
-        <v>64.53649527860384</v>
+        <v>64.53649527860378</v>
       </c>
       <c r="N23" t="n">
-        <v>64.53649527860384</v>
+        <v>64.53649527860378</v>
       </c>
       <c r="O23" t="n">
         <v>52.85678959655596</v>
       </c>
       <c r="P23" t="n">
-        <v>10.26255121848732</v>
+        <v>10.26255121848726</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -36440,19 +36440,19 @@
         <v>7.253440983420489</v>
       </c>
       <c r="L24" t="n">
-        <v>56.54359214369032</v>
+        <v>17.06775299643058</v>
       </c>
       <c r="M24" t="n">
-        <v>25.06065613134414</v>
+        <v>64.53649527860378</v>
       </c>
       <c r="N24" t="n">
-        <v>64.53649527860384</v>
+        <v>64.53649527860378</v>
       </c>
       <c r="O24" t="n">
-        <v>64.53649527860384</v>
+        <v>64.53649527860378</v>
       </c>
       <c r="P24" t="n">
-        <v>37.60776613598085</v>
+        <v>37.60776613598082</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36598,19 +36598,19 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>29.25081213381844</v>
+        <v>29.25081213381839</v>
       </c>
       <c r="M26" t="n">
-        <v>64.53649527860384</v>
+        <v>64.53649527860378</v>
       </c>
       <c r="N26" t="n">
-        <v>64.53649527860384</v>
+        <v>64.53649527860378</v>
       </c>
       <c r="O26" t="n">
         <v>52.85678959655596</v>
       </c>
       <c r="P26" t="n">
-        <v>10.26255121848732</v>
+        <v>10.26255121848726</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -36674,22 +36674,22 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>7.253440983420489</v>
       </c>
       <c r="L27" t="n">
-        <v>56.54359214369032</v>
+        <v>56.54359214369029</v>
       </c>
       <c r="M27" t="n">
-        <v>64.53649527860384</v>
+        <v>64.53649527860378</v>
       </c>
       <c r="N27" t="n">
-        <v>32.31409711476463</v>
+        <v>64.53649527860378</v>
       </c>
       <c r="O27" t="n">
-        <v>64.53649527860384</v>
+        <v>25.06065613134407</v>
       </c>
       <c r="P27" t="n">
-        <v>37.60776613598085</v>
+        <v>37.60776613598082</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36835,19 +36835,19 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>29.25081213381844</v>
+        <v>29.25081213381839</v>
       </c>
       <c r="M29" t="n">
-        <v>64.53649527860384</v>
+        <v>64.53649527860378</v>
       </c>
       <c r="N29" t="n">
-        <v>64.53649527860384</v>
+        <v>64.53649527860378</v>
       </c>
       <c r="O29" t="n">
         <v>52.85678959655596</v>
       </c>
       <c r="P29" t="n">
-        <v>10.26255121848732</v>
+        <v>10.26255121848726</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -36914,19 +36914,19 @@
         <v>7.253440983420489</v>
       </c>
       <c r="L30" t="n">
-        <v>56.54359214369032</v>
+        <v>56.54359214369029</v>
       </c>
       <c r="M30" t="n">
-        <v>64.53649527860384</v>
+        <v>25.06065613134407</v>
       </c>
       <c r="N30" t="n">
-        <v>25.06065613134413</v>
+        <v>64.53649527860378</v>
       </c>
       <c r="O30" t="n">
-        <v>64.53649527860384</v>
+        <v>64.53649527860378</v>
       </c>
       <c r="P30" t="n">
-        <v>37.60776613598085</v>
+        <v>37.60776613598082</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37072,19 +37072,19 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>29.25081213381844</v>
+        <v>29.25081213381839</v>
       </c>
       <c r="M32" t="n">
-        <v>64.53649527860384</v>
+        <v>64.53649527860378</v>
       </c>
       <c r="N32" t="n">
-        <v>64.53649527860384</v>
+        <v>64.53649527860378</v>
       </c>
       <c r="O32" t="n">
         <v>52.85678959655596</v>
       </c>
       <c r="P32" t="n">
-        <v>10.26255121848732</v>
+        <v>10.26255121848726</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -37148,22 +37148,22 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>5.385367972141618</v>
+        <v>7.253440983420489</v>
       </c>
       <c r="L33" t="n">
-        <v>56.54359214369032</v>
+        <v>56.54359214369029</v>
       </c>
       <c r="M33" t="n">
-        <v>64.53649527860384</v>
+        <v>64.53649527860378</v>
       </c>
       <c r="N33" t="n">
-        <v>64.53649527860384</v>
+        <v>64.53649527860378</v>
       </c>
       <c r="O33" t="n">
-        <v>64.53649527860384</v>
+        <v>25.06065613134407</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>37.60776613598082</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37309,7 +37309,7 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>29.25081213381844</v>
+        <v>29.25081213381839</v>
       </c>
       <c r="M35" t="n">
         <v>52.85678959655596</v>
@@ -37321,7 +37321,7 @@
         <v>52.85678959655596</v>
       </c>
       <c r="P35" t="n">
-        <v>10.26255121848732</v>
+        <v>10.26255121848726</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -37385,22 +37385,22 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>7.253440983420489</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>52.85678959655596</v>
       </c>
       <c r="M36" t="n">
+        <v>13.113395598088</v>
+      </c>
+      <c r="N36" t="n">
         <v>52.85678959655596</v>
-      </c>
-      <c r="N36" t="n">
-        <v>5.859954614667495</v>
       </c>
       <c r="O36" t="n">
         <v>52.85678959655596</v>
       </c>
       <c r="P36" t="n">
-        <v>37.60776613598085</v>
+        <v>37.60776613598082</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37546,7 +37546,7 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>29.25081213381844</v>
+        <v>29.25081213381839</v>
       </c>
       <c r="M38" t="n">
         <v>52.85678959655596</v>
@@ -37558,7 +37558,7 @@
         <v>52.85678959655596</v>
       </c>
       <c r="P38" t="n">
-        <v>10.26255121848732</v>
+        <v>10.26255121848726</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -37628,16 +37628,16 @@
         <v>52.85678959655596</v>
       </c>
       <c r="M39" t="n">
-        <v>5.859954614667481</v>
+        <v>52.85678959655596</v>
       </c>
       <c r="N39" t="n">
         <v>52.85678959655596</v>
       </c>
       <c r="O39" t="n">
-        <v>52.85678959655596</v>
+        <v>5.859954614667524</v>
       </c>
       <c r="P39" t="n">
-        <v>37.60776613598085</v>
+        <v>37.60776613598082</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37783,7 +37783,7 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>29.25081213381844</v>
+        <v>29.25081213381839</v>
       </c>
       <c r="M41" t="n">
         <v>52.85678959655596</v>
@@ -37795,7 +37795,7 @@
         <v>52.85678959655596</v>
       </c>
       <c r="P41" t="n">
-        <v>10.26255121848732</v>
+        <v>10.26255121848726</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37859,22 +37859,22 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>7.253440983420489</v>
       </c>
       <c r="L42" t="n">
         <v>52.85678959655596</v>
       </c>
       <c r="M42" t="n">
-        <v>13.11339559808797</v>
+        <v>52.85678959655596</v>
       </c>
       <c r="N42" t="n">
         <v>52.85678959655596</v>
       </c>
       <c r="O42" t="n">
-        <v>52.85678959655596</v>
+        <v>5.859954614667524</v>
       </c>
       <c r="P42" t="n">
-        <v>37.60776613598085</v>
+        <v>37.60776613598082</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38020,7 +38020,7 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>29.25081213381844</v>
+        <v>29.25081213381839</v>
       </c>
       <c r="M44" t="n">
         <v>41.17708391450813</v>
@@ -38032,7 +38032,7 @@
         <v>41.17708391450813</v>
       </c>
       <c r="P44" t="n">
-        <v>10.26255121848732</v>
+        <v>10.26255121848726</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38096,7 +38096,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>7.253440983420489</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>41.17708391450813</v>
@@ -38105,13 +38105,13 @@
         <v>41.17708391450813</v>
       </c>
       <c r="N45" t="n">
+        <v>1.905597216324955</v>
+      </c>
+      <c r="O45" t="n">
         <v>41.17708391450813</v>
       </c>
-      <c r="O45" t="n">
-        <v>32.2599223688853</v>
-      </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>37.60776613598082</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
